--- a/data/hotels_by_city/Houston/Houston_shard_223.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_223.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d108130-Reviews-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Med-Ctr-NRG-Park-Kirby.h84784.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1663 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r600472600-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108130</t>
+  </si>
+  <si>
+    <t>600472600</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service and cleanliness </t>
+  </si>
+  <si>
+    <t>Our stay here was more than disappointing.  The room was dirtt and smelled.  We asked to have it cleaned and 2 hours later upon our return nothing had been done.  The utensils for the kitchenette were unacceptable. 2 spoons, 2 forks, you get the picture.  No ice machine on the entire property.  The most concerning was the managements continual lack of attention to the commitments made as well as the treatment of the most vulnerable guests.  Many of the guests are patients at MD Anderson Cancer Center.  The smoking rules are not administered- one day we walked out of our room to find the garbage can outside the door smoking- how does that happen?  CA patients thru out the facility- shameful.  We left after a few days.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Our stay here was more than disappointing.  The room was dirtt and smelled.  We asked to have it cleaned and 2 hours later upon our return nothing had been done.  The utensils for the kitchenette were unacceptable. 2 spoons, 2 forks, you get the picture.  No ice machine on the entire property.  The most concerning was the managements continual lack of attention to the commitments made as well as the treatment of the most vulnerable guests.  Many of the guests are patients at MD Anderson Cancer Center.  The smoking rules are not administered- one day we walked out of our room to find the garbage can outside the door smoking- how does that happen?  CA patients thru out the facility- shameful.  We left after a few days.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r592762113-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592762113</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Perfect for a long stay visit</t>
+  </si>
+  <si>
+    <t>This extended stay made a 10 day business trip easy and relaxing. There was every amenity available that you could possibly need for a temporary living situation and the large, comfortable rooms made it easy to relax. Highly recommend this extended stayMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>This extended stay made a 10 day business trip easy and relaxing. There was every amenity available that you could possibly need for a temporary living situation and the large, comfortable rooms made it easy to relax. Highly recommend this extended stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r592761888-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592761888</t>
+  </si>
+  <si>
+    <t>Great 10 Day Stay!</t>
+  </si>
+  <si>
+    <t>I was part of a 10 day business trip where 23 people stayed in the Extended Stay America.  They were accommodating to all of our rooming needs, as well as they were willing to hold all of our luggage and let us check in a couple hours early when our flight came in hours before the check in time.  Rooms were clean, and they provided all the cooking utensils we needed.  Their pool made for a great place for all of our staff to relax and hang out together after a long day of work.  I would recommend this place to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>I was part of a 10 day business trip where 23 people stayed in the Extended Stay America.  They were accommodating to all of our rooming needs, as well as they were willing to hold all of our luggage and let us check in a couple hours early when our flight came in hours before the check in time.  Rooms were clean, and they provided all the cooking utensils we needed.  Their pool made for a great place for all of our staff to relax and hang out together after a long day of work.  I would recommend this place to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r582887108-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582887108</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>It's okay if you're needing something close to NRG</t>
+  </si>
+  <si>
+    <t>When we went to check in, I told the lady my name and she immediately said, "no, not at this location." I told her yes, it is, and showed her my reservation I made back in January. She says "oh yeah here it is, I was looking at the wrong screen." That's your worst fear is driving two hours from home to be told you don't have a reservation when you know you do. After she found us, we got checked in pretty quickly. The room was okay. I was impressed by the full size kitchen, especially the fridge. We were by the pool so even with the curtains drawn, it was really bright all night from the lights, though I do appreciate the added lights for security. There were only about 30 channels and the bed was okay, but I didn't feel like it was super clean. Overall though, we only needed a place close to our venue for one night and it did the job. Their grab and go breakfast had hot chocolate/coffee, granola bars, and muffins. Our commute to our event wasn't less than 30 seconds with a lot of great stores and restaurants around us. I would still suggest it if you're looking for something affordable, safe, and close to NRG.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
+  </si>
+  <si>
+    <t>When we went to check in, I told the lady my name and she immediately said, "no, not at this location." I told her yes, it is, and showed her my reservation I made back in January. She says "oh yeah here it is, I was looking at the wrong screen." That's your worst fear is driving two hours from home to be told you don't have a reservation when you know you do. After she found us, we got checked in pretty quickly. The room was okay. I was impressed by the full size kitchen, especially the fridge. We were by the pool so even with the curtains drawn, it was really bright all night from the lights, though I do appreciate the added lights for security. There were only about 30 channels and the bed was okay, but I didn't feel like it was super clean. Overall though, we only needed a place close to our venue for one night and it did the job. Their grab and go breakfast had hot chocolate/coffee, granola bars, and muffins. Our commute to our event wasn't less than 30 seconds with a lot of great stores and restaurants around us. I would still suggest it if you're looking for something affordable, safe, and close to NRG.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r580591684-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580591684</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>They treat us very well here we really  appreciate the customer service. They really treat us like family every time we stay here. This is a great service that you provide for cancer patients with all the services that allow us to feel like home. It is very hard on me and my family so I want to thank you for all that you do for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
+  </si>
+  <si>
+    <t>They treat us very well here we really  appreciate the customer service. They really treat us like family every time we stay here. This is a great service that you provide for cancer patients with all the services that allow us to feel like home. It is very hard on me and my family so I want to thank you for all that you do for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r579490539-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579490539</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 6 weeks while I had my treatments at MD Anderson. The hotel was recommended by a staff member from MD Anderson for it’s convenient location and for the cost of the room. Overall the stay has been pleasant. The staff at this hotel have been friendly and courteous. This place is ideal for the location where it’s at. We are but 10 min from MD Anderson, a walking distance from Fiesta supermarket, Walgreens, target, Kroger’s, and several great restaurants. This hotel offers free shuttle service to and from the hotel (I stopped using them because off some of the drivers, the way they drove would make me nauseas) and to MD Anderson. The small kitchenettes in the rooms are ideal. Every appliance in the room worked. The room service here is every Friday just in case your staying for an extended stay. We took care off our own room service, which the staff was very helpful by providing us the linens that we needed to make our beds and change our towels. I recommended this hotel for anyone that finds themselves similar to our situation that needs to be close to MD Anderson. Do not blame the staff for the other tenants noise or how dirty they can be. In the six weeks We have been here my family and I have overall had a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 6 weeks while I had my treatments at MD Anderson. The hotel was recommended by a staff member from MD Anderson for it’s convenient location and for the cost of the room. Overall the stay has been pleasant. The staff at this hotel have been friendly and courteous. This place is ideal for the location where it’s at. We are but 10 min from MD Anderson, a walking distance from Fiesta supermarket, Walgreens, target, Kroger’s, and several great restaurants. This hotel offers free shuttle service to and from the hotel (I stopped using them because off some of the drivers, the way they drove would make me nauseas) and to MD Anderson. The small kitchenettes in the rooms are ideal. Every appliance in the room worked. The room service here is every Friday just in case your staying for an extended stay. We took care off our own room service, which the staff was very helpful by providing us the linens that we needed to make our beds and change our towels. I recommended this hotel for anyone that finds themselves similar to our situation that needs to be close to MD Anderson. Do not blame the staff for the other tenants noise or how dirty they can be. In the six weeks We have been here my family and I have overall had a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r574650175-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574650175</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Such a great staff❤️❤️❤️ from the time we arrived to the very last second our visit has been awesome! The front desk is helpful and accommodating. I will be back soon and stay here again. We asked for the moon and they gave it to us! Very clean very spacious room and comfortable  bed! Slept great and felt very safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2018</t>
+  </si>
+  <si>
+    <t>Such a great staff❤️❤️❤️ from the time we arrived to the very last second our visit has been awesome! The front desk is helpful and accommodating. I will be back soon and stay here again. We asked for the moon and they gave it to us! Very clean very spacious room and comfortable  bed! Slept great and felt very safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r572900834-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572900834</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Medical Stay</t>
+  </si>
+  <si>
+    <t>MD Anderson provided a stay for me at Extended Stay, La Concha while in Houston to receive my treatment. The staff were professional and caring. Room was clean and provided everything I needed. Thanks to the staff and MDA.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>MD Anderson provided a stay for me at Extended Stay, La Concha while in Houston to receive my treatment. The staff were professional and caring. Room was clean and provided everything I needed. Thanks to the staff and MDA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r572751175-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572751175</t>
+  </si>
+  <si>
+    <t>04/11/2018</t>
+  </si>
+  <si>
+    <t>Good service and quality across the board</t>
+  </si>
+  <si>
+    <t>We have stayed at 1303 Laconcha, Houston, tx about a dozen times in the past 2 years for medical purposes.  This is an excellent location to the medical addresses and great on long stays when you tire of restaurants and want to cook in your quarters.  Top groceries, Texas BBQ, and Seafood are within a mile.  The staff and manager are very courteous and attentive.  Our rooms have always been clean and nicely furnished.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>We have stayed at 1303 Laconcha, Houston, tx about a dozen times in the past 2 years for medical purposes.  This is an excellent location to the medical addresses and great on long stays when you tire of restaurants and want to cook in your quarters.  Top groceries, Texas BBQ, and Seafood are within a mile.  The staff and manager are very courteous and attentive.  Our rooms have always been clean and nicely furnished.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r568543948-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568543948</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>MD Anderson</t>
+  </si>
+  <si>
+    <t>I had a great experience staying in this hotel. The service was great as well. Our hotel room itself was very spacious and it was at such an affordable price. I would definitely recommend this hotel to a friend. The location was also very convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>I had a great experience staying in this hotel. The service was great as well. Our hotel room itself was very spacious and it was at such an affordable price. I would definitely recommend this hotel to a friend. The location was also very convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r568494039-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568494039</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel for my son's sickness and extremely impress by their courteous staff and services offered. Enjoyed my stay and would definitely recommend it. Its location is also very ideal being close to MD Anderson and NRG stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at Hotel for my son's sickness and extremely impress by their courteous staff and services offered. Enjoyed my stay and would definitely recommend it. Its location is also very ideal being close to MD Anderson and NRG stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r567809405-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567809405</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is good. You have to pay extra for housekeeping. It worked out well for us during the Houston Livestock Show. The breakfast is a little short only offering granola bars and muffins. The laundry room worked well for us also.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>The hotel is good. You have to pay extra for housekeeping. It worked out well for us during the Houston Livestock Show. The breakfast is a little short only offering granola bars and muffins. The laundry room worked well for us also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r559020274-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559020274</t>
+  </si>
+  <si>
+    <t>02/07/2018</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>I did not enjoy my stay at all. I did not like no housekeeping unless you stay a week or longer. I did not like how dirty the room was when I checked in. I did not like there was no free breakfast even though it was advertised. I will never stay at this place againMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2018</t>
+  </si>
+  <si>
+    <t>I did not enjoy my stay at all. I did not like no housekeeping unless you stay a week or longer. I did not like how dirty the room was when I checked in. I did not like there was no free breakfast even though it was advertised. I will never stay at this place againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r554436070-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554436070</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Don't bother making a reservation they wont honor it</t>
+  </si>
+  <si>
+    <t>They totally are the worst, they call to tell us they overbooked 8 minutes before we got their. I had made reservation a week in advance to go see a show at the nearby stadium, I picked that place because it was within walking distance. They SUCK!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>They totally are the worst, they call to tell us they overbooked 8 minutes before we got their. I had made reservation a week in advance to go see a show at the nearby stadium, I picked that place because it was within walking distance. They SUCK!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r554267233-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554267233</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Very Accommodating...</t>
+  </si>
+  <si>
+    <t>My husband &amp; I checked in here for a couple weeks stay while he was getting tests done and now treatments at MD Anderson Cancer Center. We are going to extend our stay at least another week or two while he undergoes treatments. Ahmed the manager has been very accommodating and Annie is wonderful with cleaning our room and helping with any extra toiletries we may need while staying here! Highly recommended...Lynne HMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>My husband &amp; I checked in here for a couple weeks stay while he was getting tests done and now treatments at MD Anderson Cancer Center. We are going to extend our stay at least another week or two while he undergoes treatments. Ahmed the manager has been very accommodating and Annie is wonderful with cleaning our room and helping with any extra toiletries we may need while staying here! Highly recommended...Lynne HMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r553044265-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553044265</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Great Medical Guest Stay.</t>
+  </si>
+  <si>
+    <t>Excellent, outstanding stay. The services were great and the staff was very helpful. The rooms were clean and tidy, very accommodating. All amenities I needed were present and if I needed anything else, the staff was happy to assist me. Great stay as a medical guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Excellent, outstanding stay. The services were great and the staff was very helpful. The rooms were clean and tidy, very accommodating. All amenities I needed were present and if I needed anything else, the staff was happy to assist me. Great stay as a medical guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r550718339-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>550718339</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>The Best!</t>
+  </si>
+  <si>
+    <t>I will definitely be returning, my stay was wonderful! Everything was clean, I had more than enough towels. They have a full kitchen, the air and heat works wonderfully. This is definitely a great place to stay for a long term stay or simply one night (you won’t want to leave). MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>I will definitely be returning, my stay was wonderful! Everything was clean, I had more than enough towels. They have a full kitchen, the air and heat works wonderfully. This is definitely a great place to stay for a long term stay or simply one night (you won’t want to leave). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r548225233-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548225233</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>I’m staying here with family while our home is being remodeled</t>
+  </si>
+  <si>
+    <t>Feels like home comfort space relaxed beds great storage space nice size kitchen area stove is at great standards ice box nice and clean with ice treys dishwasher works fine air conditioning is amazing I truly have no complaintsMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Feels like home comfort space relaxed beds great storage space nice size kitchen area stove is at great standards ice box nice and clean with ice treys dishwasher works fine air conditioning is amazing I truly have no complaintsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r546493166-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546493166</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Relatively inexpensive. Good location &amp; friendly staff. Very old &amp; run down. Stinky room &amp; lift. Advertised as having full kitchens. It does but there was no kitchenware, not even plates. You get what you need from reception &amp; that was extremely basic.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2017</t>
+  </si>
+  <si>
+    <t>Relatively inexpensive. Good location &amp; friendly staff. Very old &amp; run down. Stinky room &amp; lift. Advertised as having full kitchens. It does but there was no kitchenware, not even plates. You get what you need from reception &amp; that was extremely basic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r546108707-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546108707</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>MD Anderson Clinical Rotation</t>
+  </si>
+  <si>
+    <t>Convenient location to medical center hospitals and grocery stores (Fiesta, Kroger, Target). Shuttle service to/from hotel and med center with grocery store runs every day. Mr. Ahmed and the rest of the staff were always available and made sure I had everything for a pleasant stay. Kitchen was equipped with stove/oven, microwave, and full-sized refrigerator to make cooking a viable option for a multi-night stay. Other kitchen necessities and clean linens available at front desk. On-site washers/dryers. Clean room upon easy check-in. Thanks Mr. Ahmed, Mr. Frank, and Mr. Chris for making my 10 week stay at La Concha enjoyable!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2017</t>
+  </si>
+  <si>
+    <t>Convenient location to medical center hospitals and grocery stores (Fiesta, Kroger, Target). Shuttle service to/from hotel and med center with grocery store runs every day. Mr. Ahmed and the rest of the staff were always available and made sure I had everything for a pleasant stay. Kitchen was equipped with stove/oven, microwave, and full-sized refrigerator to make cooking a viable option for a multi-night stay. Other kitchen necessities and clean linens available at front desk. On-site washers/dryers. Clean room upon easy check-in. Thanks Mr. Ahmed, Mr. Frank, and Mr. Chris for making my 10 week stay at La Concha enjoyable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r545391059-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545391059</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Room was ok, service was horrible</t>
+  </si>
+  <si>
+    <t>night shift clerk had us wait for almost 30 minutes just to check in even though we had already booked the room ahead of time. She charged us what she called a security deposit, next day i saw my statement and found 2 transactions of over $170 total. she was also not sure about giving us a room because her "list" was messed up. horrible service. room did not even have disposable cups. some towels looked brown while some looked bright. Breakfast area was completely gone at 9:20 even thought they said it is open till 9:30. worker told me to come early next time! and after all the room cost is of a 3-4 star hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>night shift clerk had us wait for almost 30 minutes just to check in even though we had already booked the room ahead of time. She charged us what she called a security deposit, next day i saw my statement and found 2 transactions of over $170 total. she was also not sure about giving us a room because her "list" was messed up. horrible service. room did not even have disposable cups. some towels looked brown while some looked bright. Breakfast area was completely gone at 9:20 even thought they said it is open till 9:30. worker told me to come early next time! and after all the room cost is of a 3-4 star hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r533773860-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533773860</t>
+  </si>
+  <si>
+    <t>10/17/2017</t>
+  </si>
+  <si>
+    <t>Terrible hotel</t>
+  </si>
+  <si>
+    <t>The whole hotel was very dirty! Holes in the wall. Shower did not work. Running water in the wall throughout the night. Everything looked dingy and old. Old bed, towels, and furniture. Not a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>The whole hotel was very dirty! Holes in the wall. Shower did not work. Running water in the wall throughout the night. Everything looked dingy and old. Old bed, towels, and furniture. Not a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r532211538-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532211538</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel several times, however last experience was nightmare. First, it was terrible smell in my room. I  had to open window and door to freshen the room.
+Then I noticed hairs in the bath. I asked to clean bath and regret that asked, since it was cleaned by some cleaning spray with the terrible smell of kerosene and it was exactly what I smell before. I had to leave my room for several hours. This is hotel located next to Medical Center, that means there are sick patients, they cannot bare such smell. Anyway when I returned I noticed that smell gone, however the room was very humid and warm although AC setting was 65F. There were holes between AC unit and the wall, isolation was symbolic. Whole night I was struggling with AC since it runs constantly on 65F and any other setting as well. The room that I got was completely out dated, however website claims that the hotel is renovated recently. When I asked about renovation, I was told that it was 3 years ago, which is not true. Since exactly 3 years ago I stayed in the same hotel and it was the same. Anyway, the biggest surprise expected me in the morning, when the hotel staff refused to keep my small suitcase for few hours, while I visit my 4 doctors in MD Anderson Cancer Center and return to take shuttle...I stayed in this hotel several times, however last experience was nightmare. First, it was terrible smell in my room. I  had to open window and door to freshen the room.Then I noticed hairs in the bath. I asked to clean bath and regret that asked, since it was cleaned by some cleaning spray with the terrible smell of kerosene and it was exactly what I smell before. I had to leave my room for several hours. This is hotel located next to Medical Center, that means there are sick patients, they cannot bare such smell. Anyway when I returned I noticed that smell gone, however the room was very humid and warm although AC setting was 65F. There were holes between AC unit and the wall, isolation was symbolic. Whole night I was struggling with AC since it runs constantly on 65F and any other setting as well. The room that I got was completely out dated, however website claims that the hotel is renovated recently. When I asked about renovation, I was told that it was 3 years ago, which is not true. Since exactly 3 years ago I stayed in the same hotel and it was the same. Anyway, the biggest surprise expected me in the morning, when the hotel staff refused to keep my small suitcase for few hours, while I visit my 4 doctors in MD Anderson Cancer Center and return to take shuttle to the airport. She refers to some new policies in all hotels of this company, when I try to object her and mentioned my previous experience exactly in the same hotel several times. Finally, after few minutes conversation and my begging she agreed to keep it, however saying that it will be only  exception this time. When I returned and ask about such policy the manager, first he was surprised, then he said that maybe she does not want to take responsibility. I am old enough and traveled a lot, never seen such treatment.I had an impression, that the staff is trying to get rid of future guests. The manager seems to be intelligent person, however he cannot handle the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded October 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2017</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel several times, however last experience was nightmare. First, it was terrible smell in my room. I  had to open window and door to freshen the room.
+Then I noticed hairs in the bath. I asked to clean bath and regret that asked, since it was cleaned by some cleaning spray with the terrible smell of kerosene and it was exactly what I smell before. I had to leave my room for several hours. This is hotel located next to Medical Center, that means there are sick patients, they cannot bare such smell. Anyway when I returned I noticed that smell gone, however the room was very humid and warm although AC setting was 65F. There were holes between AC unit and the wall, isolation was symbolic. Whole night I was struggling with AC since it runs constantly on 65F and any other setting as well. The room that I got was completely out dated, however website claims that the hotel is renovated recently. When I asked about renovation, I was told that it was 3 years ago, which is not true. Since exactly 3 years ago I stayed in the same hotel and it was the same. Anyway, the biggest surprise expected me in the morning, when the hotel staff refused to keep my small suitcase for few hours, while I visit my 4 doctors in MD Anderson Cancer Center and return to take shuttle...I stayed in this hotel several times, however last experience was nightmare. First, it was terrible smell in my room. I  had to open window and door to freshen the room.Then I noticed hairs in the bath. I asked to clean bath and regret that asked, since it was cleaned by some cleaning spray with the terrible smell of kerosene and it was exactly what I smell before. I had to leave my room for several hours. This is hotel located next to Medical Center, that means there are sick patients, they cannot bare such smell. Anyway when I returned I noticed that smell gone, however the room was very humid and warm although AC setting was 65F. There were holes between AC unit and the wall, isolation was symbolic. Whole night I was struggling with AC since it runs constantly on 65F and any other setting as well. The room that I got was completely out dated, however website claims that the hotel is renovated recently. When I asked about renovation, I was told that it was 3 years ago, which is not true. Since exactly 3 years ago I stayed in the same hotel and it was the same. Anyway, the biggest surprise expected me in the morning, when the hotel staff refused to keep my small suitcase for few hours, while I visit my 4 doctors in MD Anderson Cancer Center and return to take shuttle to the airport. She refers to some new policies in all hotels of this company, when I try to object her and mentioned my previous experience exactly in the same hotel several times. Finally, after few minutes conversation and my begging she agreed to keep it, however saying that it will be only  exception this time. When I returned and ask about such policy the manager, first he was surprised, then he said that maybe she does not want to take responsibility. I am old enough and traveled a lot, never seen such treatment.I had an impression, that the staff is trying to get rid of future guests. The manager seems to be intelligent person, however he cannot handle the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r531877676-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531877676</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>place to sleep</t>
+  </si>
+  <si>
+    <t>if you are looking for just a place to sleep than this is it. because that is all you will get. a clean room to sleep in and a snack for breakfast. very close to nrg park walking distance. i would comeback if there is another football game i wanted to seeMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>if you are looking for just a place to sleep than this is it. because that is all you will get. a clean room to sleep in and a snack for breakfast. very close to nrg park walking distance. i would comeback if there is another football game i wanted to seeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r509438718-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509438718</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay for a family. Full size kitchen in our room was nice, the bed was ok. Close to the med center and to NRG. The pool was closed for the first night for "cleaning". Breakfast was muffins in a bag of granola bars that we didn't eat. We had to ask for more pillows, blankets and sheets for the fold away bed, but staff gave us what we needed without problems. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Not a bad place to stay for a family. Full size kitchen in our room was nice, the bed was ok. Close to the med center and to NRG. The pool was closed for the first night for "cleaning". Breakfast was muffins in a bag of granola bars that we didn't eat. We had to ask for more pillows, blankets and sheets for the fold away bed, but staff gave us what we needed without problems. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r508914325-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508914325</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>served its purpose</t>
+  </si>
+  <si>
+    <t>The room was clean, did not have a smell like some that have kitchens in them.  Everything worked as it was suppose to.  We only needed it to sleep in, So we did not use the stove at all.  the hallways were quiet at night. Bed was comfortable so we both slept great.  AC worked great.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2017</t>
+  </si>
+  <si>
+    <t>The room was clean, did not have a smell like some that have kitchens in them.  Everything worked as it was suppose to.  We only needed it to sleep in, So we did not use the stove at all.  the hallways were quiet at night. Bed was comfortable so we both slept great.  AC worked great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r506952092-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506952092</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay La Concha</t>
+  </si>
+  <si>
+    <t>Always a good place to stay for access to medical offices,  I've been staying there since 2007, and location is 10 minutes to the medical district, easy access to shopping, and restaurants are close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Always a good place to stay for access to medical offices,  I've been staying there since 2007, and location is 10 minutes to the medical district, easy access to shopping, and restaurants are close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r503056025-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503056025</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>An Unexpected Stay</t>
+  </si>
+  <si>
+    <t>The room was average but a little stale due to no air conditioning circulating. I would recommend this hotel because of the great price and convenience. This hotel is in walking distance of NRG Stadium, a shopping center and numerous eateries. The location is almost central Houston and within minutes of the Houston Medical Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>The room was average but a little stale due to no air conditioning circulating. I would recommend this hotel because of the great price and convenience. This hotel is in walking distance of NRG Stadium, a shopping center and numerous eateries. The location is almost central Houston and within minutes of the Houston Medical Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r502479097-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502479097</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Served it's purpose</t>
+  </si>
+  <si>
+    <t>We got a good deal so overall it was worth it! Manager and staff were very nice! My only complaint is that the shower curtain had some soap scum on the bottom and there was some mold around the tub. The kitchen was fine. Didn't really use the stove after all. And everything else about the room was excellent. The bathroom could have better lighting like maybe an overhead light. Was hard to do makeup. The pool was a good size and the patio furniture was a nice touch. Grab and go breakfast left a lot to be desired. But you could easily make your own breakfast in the room kitchen. Would definitely stay again though. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>We got a good deal so overall it was worth it! Manager and staff were very nice! My only complaint is that the shower curtain had some soap scum on the bottom and there was some mold around the tub. The kitchen was fine. Didn't really use the stove after all. And everything else about the room was excellent. The bathroom could have better lighting like maybe an overhead light. Was hard to do makeup. The pool was a good size and the patio furniture was a nice touch. Grab and go breakfast left a lot to be desired. But you could easily make your own breakfast in the room kitchen. Would definitely stay again though. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r502002430-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502002430</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Clean suite. Intelligent staff. Shopping and restaurants across the street.</t>
+  </si>
+  <si>
+    <t>I gave the suite the "white sock" test...it passed.  Well equipped kitcchen.  Supermarket and a few restaurants accross the street.  Great for the money.  Pleasant, helpful staff.  Excellent for medical center stays.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2017</t>
+  </si>
+  <si>
+    <t>I gave the suite the "white sock" test...it passed.  Well equipped kitcchen.  Supermarket and a few restaurants accross the street.  Great for the money.  Pleasant, helpful staff.  Excellent for medical center stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r501457543-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501457543</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Great place to wait out the rehab on my condo</t>
+  </si>
+  <si>
+    <t>The room was great with the kitchen area - I knew I would be there a couple of months because I was having my condo completely remodeled.  With a kitchen, I could cook my own meals and not have to eat out all the time. The room was plenty big to accomadate me and my things - large closet. The staff was very friendly and tried hard to meet my needs.  I would stay here again if needed and also recommend to friends visiting here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>The room was great with the kitchen area - I knew I would be there a couple of months because I was having my condo completely remodeled.  With a kitchen, I could cook my own meals and not have to eat out all the time. The room was plenty big to accomadate me and my things - large closet. The staff was very friendly and tried hard to meet my needs.  I would stay here again if needed and also recommend to friends visiting here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r501116438-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501116438</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Very goog experience</t>
+  </si>
+  <si>
+    <t>Clean, confortable very good located. The hotel is almost new. the elevator is ald and dirty. But the service was very good. The reservation process is easy and no problem for the check in. The pool is cleanMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Clean, confortable very good located. The hotel is almost new. the elevator is ald and dirty. But the service was very good. The reservation process is easy and no problem for the check in. The pool is cleanMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r499036361-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499036361</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>The location and shuttle service to MD Anderson was great!</t>
+  </si>
+  <si>
+    <t>It was a good experience. The location of the hotel is perfect. There are many restaurants, shops, grocery stores, pharmacy etc. within walking distance. There is also shuttle service to the Medical Center. All by all perfect location, good hotel with a great price...I would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>It was a good experience. The location of the hotel is perfect. There are many restaurants, shops, grocery stores, pharmacy etc. within walking distance. There is also shuttle service to the Medical Center. All by all perfect location, good hotel with a great price...I would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r494147202-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494147202</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Mostly Met My Expectations (Medical Patient)</t>
+  </si>
+  <si>
+    <t>Everything was fine, except the room didn't seem totally sanitary (which is important for cancer patients traveling for treatment at the medical centers) so we had to wipe everything down with Clorox Wipes, etc. to be on the safe side. No sign of infestation, though, so that was good! Kitchen was truly a full kitchen. We got a suite with two queen beds; room was large. Elevators seemed a little sketchy; I think they were being worked on. Grocery and other stores are very close and convenient and a shuttle to the medical centers is available. We first booked at another location (Fannin) that was somewhat cheaper, but the reviews on TripAdvisor were so bad for that one that we changed reservations and paid a little more to stay at this location (Kirby) and it was still affordable and met our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Everything was fine, except the room didn't seem totally sanitary (which is important for cancer patients traveling for treatment at the medical centers) so we had to wipe everything down with Clorox Wipes, etc. to be on the safe side. No sign of infestation, though, so that was good! Kitchen was truly a full kitchen. We got a suite with two queen beds; room was large. Elevators seemed a little sketchy; I think they were being worked on. Grocery and other stores are very close and convenient and a shuttle to the medical centers is available. We first booked at another location (Fannin) that was somewhat cheaper, but the reviews on TripAdvisor were so bad for that one that we changed reservations and paid a little more to stay at this location (Kirby) and it was still affordable and met our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r493375577-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493375577</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>Great, Attentive Staff and Pleasant Place to Stay</t>
+  </si>
+  <si>
+    <t>The room is spacious and very functional. There is plenty of space to store your items, especially for a longer stay. The staff is very attention to guest needs and they are very courteous, responding to guest needs promptly and professionally. The location is also great; within walking distance of restaurants, stores, NRG Stadium. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2017</t>
+  </si>
+  <si>
+    <t>The room is spacious and very functional. There is plenty of space to store your items, especially for a longer stay. The staff is very attention to guest needs and they are very courteous, responding to guest needs promptly and professionally. The location is also great; within walking distance of restaurants, stores, NRG Stadium. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r487803059-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487803059</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Awesome location for the NRG center</t>
+  </si>
+  <si>
+    <t>Spent a few days in Houston for the U2 concert It was AWESOME by the way. This hotel is directly across the street from one of the parking lots so we just hat to walk across the street and we were there. Of course the stadium lot was humongous but did not have to pay the huge parking fees for the venue. It is an older building but clean and friendly staff. The rooms have a fridge Microwave stove and sink. If staying a few days ideal. We kept lots of water and snacks. There is a large Fiesta grocery store next door. It is also close to the train to go down town and 1 mile from Chachos which is the most important thing. Has a pool and laundry. As I said walk across the street to the stadium. Will definitely stay again if going to a concert. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Spent a few days in Houston for the U2 concert It was AWESOME by the way. This hotel is directly across the street from one of the parking lots so we just hat to walk across the street and we were there. Of course the stadium lot was humongous but did not have to pay the huge parking fees for the venue. It is an older building but clean and friendly staff. The rooms have a fridge Microwave stove and sink. If staying a few days ideal. We kept lots of water and snacks. There is a large Fiesta grocery store next door. It is also close to the train to go down town and 1 mile from Chachos which is the most important thing. Has a pool and laundry. As I said walk across the street to the stadium. Will definitely stay again if going to a concert. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r466825632-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>466825632</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Another Great Stay</t>
+  </si>
+  <si>
+    <t>We stay at this hotel every year for the World Championship BBQ that takes place at NRG Stadium parking lot and a few days during the Rodeo.The Hotel is in walking distance to the grounds and has plenty of parking for all the guests.The staff and all the employees at this hotel are the most friendly and accommodating people of any hotel I have ever stay in. Always helpful and available.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>We stay at this hotel every year for the World Championship BBQ that takes place at NRG Stadium parking lot and a few days during the Rodeo.The Hotel is in walking distance to the grounds and has plenty of parking for all the guests.The staff and all the employees at this hotel are the most friendly and accommodating people of any hotel I have ever stay in. Always helpful and available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r465626557-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465626557</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Most enjoyable   stay ever  at this location</t>
+  </si>
+  <si>
+    <t>Room was nice and big,  AC  kept us cool.  Nice Kitchen,   The staff was exceptional,  Dormicea, Lisa, Sophia and Sissy.  always smiling and the Gen Manager always made sure we had what  we needed  All with a smile from all the staff.    Very clean and nice smelling towels.    Already made reservations for next year</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r464313995-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464313995</t>
+  </si>
+  <si>
+    <t>03/03/2017</t>
+  </si>
+  <si>
+    <t>Each stay has been better than the time before.</t>
+  </si>
+  <si>
+    <t>This is our third time staying at this hotel (the VA puts us up here while in town for our annual review). Each stay has been a little better than the one before. The facilities were updated a little more, there no longer is the smell of smoke in the hallways, the furniture was newer, grounds better maintained, etc. Granted, this time wasn’t as clean as I would have liked, but I attribute that to the Superbowl having occurred two days before our arrival (the hotel is one block from the stadium). Over the course of the three days we were there, it got cleaner each day, so I’m sure they were playing catch-up.The manager was on property each day of our stay which seemed to make everything run more smoothly. Even when there was confusion over our bill, the manager quickly reviewed the error and had it adjusted. Regarding the photos on Tripadvisor and on the Extended Stay website, they are not of this particular facility. While the rooms and pool are similar, they are not true to this property. For a no-fuss, quick couple of days stay, I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2017</t>
+  </si>
+  <si>
+    <t>This is our third time staying at this hotel (the VA puts us up here while in town for our annual review). Each stay has been a little better than the one before. The facilities were updated a little more, there no longer is the smell of smoke in the hallways, the furniture was newer, grounds better maintained, etc. Granted, this time wasn’t as clean as I would have liked, but I attribute that to the Superbowl having occurred two days before our arrival (the hotel is one block from the stadium). Over the course of the three days we were there, it got cleaner each day, so I’m sure they were playing catch-up.The manager was on property each day of our stay which seemed to make everything run more smoothly. Even when there was confusion over our bill, the manager quickly reviewed the error and had it adjusted. Regarding the photos on Tripadvisor and on the Extended Stay website, they are not of this particular facility. While the rooms and pool are similar, they are not true to this property. For a no-fuss, quick couple of days stay, I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r459714263-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459714263</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Spartan, but good value</t>
+  </si>
+  <si>
+    <t>Typical Extended stay hotel. No dishes, cups, etc.. Recently renovated. Beds comfortable and clean. Close to TMC and shops. Great price! Quiet rooms. Very empathetic and helpful to med center patients. Had wheelchair at front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2017</t>
+  </si>
+  <si>
+    <t>Typical Extended stay hotel. No dishes, cups, etc.. Recently renovated. Beds comfortable and clean. Close to TMC and shops. Great price! Quiet rooms. Very empathetic and helpful to med center patients. Had wheelchair at front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r458284991-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458284991</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay </t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. It's in the perfect  location close to the bus line as well as the train so you can leave your car parked at the hotel and avoid paying for parking downtown. It's across  the street from the Texans NRG stadium. The rooms are clean and very spacious. The staff is wonderful, very friendly and inviting. I will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this hotel. It's in the perfect  location close to the bus line as well as the train so you can leave your car parked at the hotel and avoid paying for parking downtown. It's across  the street from the Texans NRG stadium. The rooms are clean and very spacious. The staff is wonderful, very friendly and inviting. I will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r458168329-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458168329</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>SUPER BOWL, SUPER HOSTS!</t>
+  </si>
+  <si>
+    <t>We were guests of the property on Super Bowl weekend. I cannot say ENOUGH about the amazing staff here.We had an unfortunate incident and the Owner, Ahmed, jumped in to action and saved the day for us!The entire staff is so friendly and professional I felt like I was leaving my family when we had to check out:)Very convenient location and walking distance to just about anything you could need!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2017</t>
+  </si>
+  <si>
+    <t>We were guests of the property on Super Bowl weekend. I cannot say ENOUGH about the amazing staff here.We had an unfortunate incident and the Owner, Ahmed, jumped in to action and saved the day for us!The entire staff is so friendly and professional I felt like I was leaving my family when we had to check out:)Very convenient location and walking distance to just about anything you could need!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r451353814-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451353814</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>It was a nice stay.</t>
+  </si>
+  <si>
+    <t>Rooms are clean &amp; well kept. Service was good too. Great location. Has amenities that you look for in a hotel. Parking is little cramped, but other than that it was a very good stay. I look forward to going back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Rooms are clean &amp; well kept. Service was good too. Great location. Has amenities that you look for in a hotel. Parking is little cramped, but other than that it was a very good stay. I look forward to going back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r448168659-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448168659</t>
+  </si>
+  <si>
+    <t>12/31/2016</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>Excellent Front desk reception by Amit and very responsive to accommodate needs of the guest. He was there to answer any questions and address any needs.Stayed here for 8 days and stay was very comfortable, spacious rooms and friendly staff. There is improvement needed from couple of other front desk staff members on how to greet and response to customer with a smile and positive approachMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2017</t>
+  </si>
+  <si>
+    <t>Excellent Front desk reception by Amit and very responsive to accommodate needs of the guest. He was there to answer any questions and address any needs.Stayed here for 8 days and stay was very comfortable, spacious rooms and friendly staff. There is improvement needed from couple of other front desk staff members on how to greet and response to customer with a smile and positive approachMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r446311743-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446311743</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>Unsanitary and not in good condition.</t>
+  </si>
+  <si>
+    <t>I was very disappointed with out room. Even after being promised the room would be cleaned completely the next day it never happened and the "mystery substance" on the coffee table was never removed. Yuck!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>I was very disappointed with out room. Even after being promised the room would be cleaned completely the next day it never happened and the "mystery substance" on the coffee table was never removed. Yuck!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r443306501-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443306501</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, Great Room Layout, Friendly Staff</t>
+  </si>
+  <si>
+    <t>This was our third stay at ESA while my husband received treatment at MDA. The room layout was perfect for me to work on my  computer and still be able to see my husband at all times. When I was having internet reception issues, the manager moved us to a more centrally located room to meet my needs for fast speed internet. The staff was friendly and provided extras we required. They always acknowledged us when they saw us in the halls or elevator. Quiet most of the time. Location great for MDA and convenient to grocery, restaurants, and shopping. I was impressed that the manager too action to made sure the residence had parking when there was an event at the NRA center.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2016</t>
+  </si>
+  <si>
+    <t>This was our third stay at ESA while my husband received treatment at MDA. The room layout was perfect for me to work on my  computer and still be able to see my husband at all times. When I was having internet reception issues, the manager moved us to a more centrally located room to meet my needs for fast speed internet. The staff was friendly and provided extras we required. They always acknowledged us when they saw us in the halls or elevator. Quiet most of the time. Location great for MDA and convenient to grocery, restaurants, and shopping. I was impressed that the manager too action to made sure the residence had parking when there was an event at the NRA center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r437130063-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437130063</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>The great place to stay, they all treated me like family!</t>
+  </si>
+  <si>
+    <t>My room was perfect for what I needed.   The location was great for shopping and places to eat.   It was close to entertainment.  The staff was so nice to me and very accommodating!  I have never stayed at a place that was so friendly!   When I checked in I was told to make sure that I was happy with my room, I have never had that happen.  The staff made me feel like family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded November 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2016</t>
+  </si>
+  <si>
+    <t>My room was perfect for what I needed.   The location was great for shopping and places to eat.   It was close to entertainment.  The staff was so nice to me and very accommodating!  I have never stayed at a place that was so friendly!   When I checked in I was told to make sure that I was happy with my room, I have never had that happen.  The staff made me feel like family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r434024461-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434024461</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice! </t>
+  </si>
+  <si>
+    <t>Came down from Kansas for husband to have surgery at the heart institute. Staff was very friendly and always helpful. They do not disturb when sign is in place, as that should not! The room is like a studio apartment. Have to ask for the cooking stuff, but at no additional charge. Couldn't of asked for anything more for the price! MoreShow less</t>
+  </si>
+  <si>
+    <t>Came down from Kansas for husband to have surgery at the heart institute. Staff was very friendly and always helpful. They do not disturb when sign is in place, as that should not! The room is like a studio apartment. Have to ask for the cooking stuff, but at no additional charge. Couldn't of asked for anything more for the price! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r419004097-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419004097</t>
+  </si>
+  <si>
+    <t>09/15/2016</t>
+  </si>
+  <si>
+    <t>Anonymous Anonymous</t>
+  </si>
+  <si>
+    <t>Great hotel...oven ready... washer dryer on site. Everyone's attitude is great. Manager always around and very helpful. Resturants, salons, shopping, clothing. The rooms are huge...nice kitchen...great bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel...oven ready... washer dryer on site. Everyone's attitude is great. Manager always around and very helpful. Resturants, salons, shopping, clothing. The rooms are huge...nice kitchen...great bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r418928719-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418928719</t>
+  </si>
+  <si>
+    <t>staff eforts of supurb assistance</t>
+  </si>
+  <si>
+    <t>you will enjoy location, close to all kinds of stores, close to NRG stadium and tailgates.“Great location, excellent service, convenient to everywhere is Houston. Will stay again” I have been here now for about 2 months, and I can say thus far my experience with the management and the staff has been great.MoreShow less</t>
+  </si>
+  <si>
+    <t>you will enjoy location, close to all kinds of stores, close to NRG stadium and tailgates.“Great location, excellent service, convenient to everywhere is Houston. Will stay again” I have been here now for about 2 months, and I can say thus far my experience with the management and the staff has been great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r418828188-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418828188</t>
+  </si>
+  <si>
+    <t>Such wonderful and helpful staff.  Beautiful property!</t>
+  </si>
+  <si>
+    <t>This is the best hotel I have stayed. The service and friendliness of the staff is superior.  Most of the people that stay here are going to V.A. Or MD Anderson.  They bend over backwards to help the guests.  I definitely recommend this hotel and will absolutely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the best hotel I have stayed. The service and friendliness of the staff is superior.  Most of the people that stay here are going to V.A. Or MD Anderson.  They bend over backwards to help the guests.  I definitely recommend this hotel and will absolutely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r414206045-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414206045</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Great location, excellent service, convenient to everywhere is Houston. Will stay again</t>
+  </si>
+  <si>
+    <t>I booked for three nights over the Labor Day holiday. Really enjoyed my stay there.  Great location, excellent service, responsive management. This hotel is convenient to everywhere is Houston.  Will stay in this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>I booked for three nights over the Labor Day holiday. Really enjoyed my stay there.  Great location, excellent service, responsive management. This hotel is convenient to everywhere is Houston.  Will stay in this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r412031746-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412031746</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Friendly and Helpful Employees</t>
+  </si>
+  <si>
+    <t>Due to medical reasons our overnight stay turned into a week stay. There was always someone at the desk during regular hours working hours. The staff shared that the doors were locked at 11 p.m. and how to access the building if we were in that situation. We were always acknowledged when we walked through the lobby. There was a laundry on the first floor which was a big convenience for me. There were also vending machines accessible any time day or night. The continental  breakfast was light and dark roast coffee along with hot water with tea or hot chocolate. There were granola bars and small muffins.  It was enough to hold us over through the early morning appointments until we could get a breakfast. I felt very safe.  The parking lot was well lit and everything was wheelchair accessible. We will stay on our next trip because I liked the room we were in.  Having the  "3 Little Bears"  syndrome our first room smelled a little musty but was tolerable.  The second night's room the air was too dry and I didn't notice until we were in bed.  The third room was just right!  I would recommend this motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2016</t>
+  </si>
+  <si>
+    <t>Due to medical reasons our overnight stay turned into a week stay. There was always someone at the desk during regular hours working hours. The staff shared that the doors were locked at 11 p.m. and how to access the building if we were in that situation. We were always acknowledged when we walked through the lobby. There was a laundry on the first floor which was a big convenience for me. There were also vending machines accessible any time day or night. The continental  breakfast was light and dark roast coffee along with hot water with tea or hot chocolate. There were granola bars and small muffins.  It was enough to hold us over through the early morning appointments until we could get a breakfast. I felt very safe.  The parking lot was well lit and everything was wheelchair accessible. We will stay on our next trip because I liked the room we were in.  Having the  "3 Little Bears"  syndrome our first room smelled a little musty but was tolerable.  The second night's room the air was too dry and I didn't notice until we were in bed.  The third room was just right!  I would recommend this motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r410971965-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410971965</t>
+  </si>
+  <si>
+    <t>08/26/2016</t>
+  </si>
+  <si>
+    <t>frindly staff</t>
+  </si>
+  <si>
+    <t>rooms are clean and most people staying are dealing with sickness due to cancer and the staff are such a joy to be around when you are dealing with so much. it is a nice place to be when you cannot be homeMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>rooms are clean and most people staying are dealing with sickness due to cancer and the staff are such a joy to be around when you are dealing with so much. it is a nice place to be when you cannot be homeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r400778577-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400778577</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Above and beyond the call of duty.</t>
+  </si>
+  <si>
+    <t>The whole staff could not do enough to keep all visitors happy.  Asking when you come in if you need anything.  The only complaint I have is no security cameras out side the building.  The staff all seem to be happy helping the visitors.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>The whole staff could not do enough to keep all visitors happy.  Asking when you come in if you need anything.  The only complaint I have is no security cameras out side the building.  The staff all seem to be happy helping the visitors.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r396622432-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396622432</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I was very pleased with my recent visit to Houston. The Extended Stay hotel was clean, and in good repair. The room was quite large, and the Kitchenette made the stay more convenient. I would not hesitate to stay here again. The front desk people were helpful and pleasant as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>I was very pleased with my recent visit to Houston. The Extended Stay hotel was clean, and in good repair. The room was quite large, and the Kitchenette made the stay more convenient. I would not hesitate to stay here again. The front desk people were helpful and pleasant as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r394669427-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394669427</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The room had two queen beds and a sleeper sofa. It also had a full kitchen. The room was very spacious. The staff was very friendly and courteous. They provided dishes pots and pans  for the kitchen. They also have a nice little pool for the family. A nice laundry room and a small exercise room. With The grab and go breakfast you have several choices from fruit to breakfast bars to muffins and coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2016</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. The room had two queen beds and a sleeper sofa. It also had a full kitchen. The room was very spacious. The staff was very friendly and courteous. They provided dishes pots and pans  for the kitchen. They also have a nice little pool for the family. A nice laundry room and a small exercise room. With The grab and go breakfast you have several choices from fruit to breakfast bars to muffins and coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r373521834-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373521834</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Quiet place to sleep</t>
+  </si>
+  <si>
+    <t>Good value place to stay. Offers a quickie type breakfast. Oatmeal, friut, coffee, and snack bars to take with you. In the medical district with lots of fast food and restaurants within walking distance.  Will consider trying them in other parts of the country. Staff very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Good value place to stay. Offers a quickie type breakfast. Oatmeal, friut, coffee, and snack bars to take with you. In the medical district with lots of fast food and restaurants within walking distance.  Will consider trying them in other parts of the country. Staff very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r369056439-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369056439</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Excellent Staff!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for OTC and the staff was awesome. Our bed was very comfortable, the room was clean and the security they have at the hotel is reassuring.The manager, Ahmed, went out of his way to help me with printing a document for work. We also had an issue with room scheduling that was our error and he was accommodating beyond what I expected. Shannon at the front desk was friendly and helpful. There is a grocery store right across the street, it is in walking distance to the NRG. The price was very good especially compared to other hotels in that area. Everywhere we went in this area, the locals were friendly. While we were there I saw the staff moving furniture and working to update rooms. I say I “saw” them because I never heard them even though they were moving a lot of stuff, they were very quiet doing so. Our a/c was very cold. They provide free WIFI and breakfast. We travel to Houston a lot and this is our new hotel choice!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for OTC and the staff was awesome. Our bed was very comfortable, the room was clean and the security they have at the hotel is reassuring.The manager, Ahmed, went out of his way to help me with printing a document for work. We also had an issue with room scheduling that was our error and he was accommodating beyond what I expected. Shannon at the front desk was friendly and helpful. There is a grocery store right across the street, it is in walking distance to the NRG. The price was very good especially compared to other hotels in that area. Everywhere we went in this area, the locals were friendly. While we were there I saw the staff moving furniture and working to update rooms. I say I “saw” them because I never heard them even though they were moving a lot of stuff, they were very quiet doing so. Our a/c was very cold. They provide free WIFI and breakfast. We travel to Houston a lot and this is our new hotel choice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r368188256-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368188256</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>I love the view. Friendly. The room was spotless and clean when I came in it smelt like a new home. The have breakfast that last until 9 a.m. just a wonderful quiet place to be. Across from it is the Houston Texans stadium. So this will be the best spot to go if you are traveling to one of there games.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>I love the view. Friendly. The room was spotless and clean when I came in it smelt like a new home. The have breakfast that last until 9 a.m. just a wonderful quiet place to be. Across from it is the Houston Texans stadium. So this will be the best spot to go if you are traveling to one of there games.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r360382014-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360382014</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>NOT as advertised and Awful service</t>
+  </si>
+  <si>
+    <t>I didn't have high expectations when I booked this hotel because it was affordable room and a so-so part of town but I was still disappointed. The company website advertises the rooms as "Newly Renovated" this is not true. They have probably been recently painted and had new flooring/carpet but the rest of the room is SO outdated. It has all the original fixtures/cabinets and appliances in the kitchen and bath (which is fine BUT it wasn't advertised this way). In addition, I have NEVER walked into any hotel and not been greeted properly by the front desk person. On arrival, no one was as at the front desk. After a few minutes I heard people in an office and yelled "Hello". Finally, a man came out and said "Last name?". I said "Hello"....did he say "Hello, Welcome, How can I help you?" NOPE. After, I said "Hello" with no response from him, I gave my last name. He said "Driver's license and credit card"...no please, no thank you, nada. Seriously?!?! The next day we asked for a few extra towels. Obviously, I'm not up on the amazing "service" of Extended Stay because I was told to bring my dirty towels to the desk and they would "exchange" them for clean ones. I don't really care what the reason is for this policy. This is just dumb. I'm standing with my shower running needing a towel but I have to...I didn't have high expectations when I booked this hotel because it was affordable room and a so-so part of town but I was still disappointed. The company website advertises the rooms as "Newly Renovated" this is not true. They have probably been recently painted and had new flooring/carpet but the rest of the room is SO outdated. It has all the original fixtures/cabinets and appliances in the kitchen and bath (which is fine BUT it wasn't advertised this way). In addition, I have NEVER walked into any hotel and not been greeted properly by the front desk person. On arrival, no one was as at the front desk. After a few minutes I heard people in an office and yelled "Hello". Finally, a man came out and said "Last name?". I said "Hello"....did he say "Hello, Welcome, How can I help you?" NOPE. After, I said "Hello" with no response from him, I gave my last name. He said "Driver's license and credit card"...no please, no thank you, nada. Seriously?!?! The next day we asked for a few extra towels. Obviously, I'm not up on the amazing "service" of Extended Stay because I was told to bring my dirty towels to the desk and they would "exchange" them for clean ones. I don't really care what the reason is for this policy. This is just dumb. I'm standing with my shower running needing a towel but I have to get dressed to run down to the office? Just crappy a policy and when you add in the "renovated" room wiith no alarm clock and broken lamp shades and a miserable employee at the front desk, it's just not worth it. Oh! And "breakfast" consists of some granola bars and questionable fruit. Blah. I'll stay at the Holiday Inn across the street next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>I didn't have high expectations when I booked this hotel because it was affordable room and a so-so part of town but I was still disappointed. The company website advertises the rooms as "Newly Renovated" this is not true. They have probably been recently painted and had new flooring/carpet but the rest of the room is SO outdated. It has all the original fixtures/cabinets and appliances in the kitchen and bath (which is fine BUT it wasn't advertised this way). In addition, I have NEVER walked into any hotel and not been greeted properly by the front desk person. On arrival, no one was as at the front desk. After a few minutes I heard people in an office and yelled "Hello". Finally, a man came out and said "Last name?". I said "Hello"....did he say "Hello, Welcome, How can I help you?" NOPE. After, I said "Hello" with no response from him, I gave my last name. He said "Driver's license and credit card"...no please, no thank you, nada. Seriously?!?! The next day we asked for a few extra towels. Obviously, I'm not up on the amazing "service" of Extended Stay because I was told to bring my dirty towels to the desk and they would "exchange" them for clean ones. I don't really care what the reason is for this policy. This is just dumb. I'm standing with my shower running needing a towel but I have to...I didn't have high expectations when I booked this hotel because it was affordable room and a so-so part of town but I was still disappointed. The company website advertises the rooms as "Newly Renovated" this is not true. They have probably been recently painted and had new flooring/carpet but the rest of the room is SO outdated. It has all the original fixtures/cabinets and appliances in the kitchen and bath (which is fine BUT it wasn't advertised this way). In addition, I have NEVER walked into any hotel and not been greeted properly by the front desk person. On arrival, no one was as at the front desk. After a few minutes I heard people in an office and yelled "Hello". Finally, a man came out and said "Last name?". I said "Hello"....did he say "Hello, Welcome, How can I help you?" NOPE. After, I said "Hello" with no response from him, I gave my last name. He said "Driver's license and credit card"...no please, no thank you, nada. Seriously?!?! The next day we asked for a few extra towels. Obviously, I'm not up on the amazing "service" of Extended Stay because I was told to bring my dirty towels to the desk and they would "exchange" them for clean ones. I don't really care what the reason is for this policy. This is just dumb. I'm standing with my shower running needing a towel but I have to get dressed to run down to the office? Just crappy a policy and when you add in the "renovated" room wiith no alarm clock and broken lamp shades and a miserable employee at the front desk, it's just not worth it. Oh! And "breakfast" consists of some granola bars and questionable fruit. Blah. I'll stay at the Holiday Inn across the street next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r358605305-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358605305</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Nice, Convenient Place to Stay</t>
+  </si>
+  <si>
+    <t>Recently my family stayed at Extended Stay America on La Concha Lane while attending the HLSR for a week. The place was nice, clean, convenient, and the manager and staff were all so very kind, friendly and very helpful. The price was not out of this world as compared to other hotels near the NRG Center. We have convinced other families to come stay there next year when we all attend the Steer Show at HLSR, we will be back!Stayed March 2016MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Recently my family stayed at Extended Stay America on La Concha Lane while attending the HLSR for a week. The place was nice, clean, convenient, and the manager and staff were all so very kind, friendly and very helpful. The price was not out of this world as compared to other hotels near the NRG Center. We have convinced other families to come stay there next year when we all attend the Steer Show at HLSR, we will be back!Stayed March 2016More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r356770822-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356770822</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Check in was good, had to hunt down a pillowcase for fold-out couch from house keeping; coffee maker has to be requested at front desk and carried up; there was mold growing on bottom of the shower curtain; lots of noise from hall.  The grab and go breakfast  had very little protein components--just a few grams in a cereal bar. No milk...went to the Fiesta across the street.  I was allowed early check in and late check out (one hour each).  Convenient location.  The hotel was renting parking for the rodeo at the same time, but I was able to find a spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Check in was good, had to hunt down a pillowcase for fold-out couch from house keeping; coffee maker has to be requested at front desk and carried up; there was mold growing on bottom of the shower curtain; lots of noise from hall.  The grab and go breakfast  had very little protein components--just a few grams in a cereal bar. No milk...went to the Fiesta across the street.  I was allowed early check in and late check out (one hour each).  Convenient location.  The hotel was renting parking for the rodeo at the same time, but I was able to find a spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r353785756-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353785756</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Absolutely Outstanding</t>
+  </si>
+  <si>
+    <t>Excellent HotelExcellent RoomExcellent StaffExcellent ServiceExcellent ManagementExcellent LocationWhen we are in Houston for a Football game, the Rodeo, or absolutely every other reason, THIS IS MY HOTEL! MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Excellent HotelExcellent RoomExcellent StaffExcellent ServiceExcellent ManagementExcellent LocationWhen we are in Houston for a Football game, the Rodeo, or absolutely every other reason, THIS IS MY HOTEL! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r352694324-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352694324</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Drina C. "Excellent Stay"</t>
+  </si>
+  <si>
+    <t>This particular extended stay was AWESOME!!!!!! The staff is very nice and helpful. The rooms are very clean and whatever you need the entire staff will go above and beyond to make your stay pleasurable. I had to stay for an extended length of time and all the the employees as well as the owners made me feel at home. My home away from home. I'd definitely stay here again. Very nice caring people..MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>This particular extended stay was AWESOME!!!!!! The staff is very nice and helpful. The rooms are very clean and whatever you need the entire staff will go above and beyond to make your stay pleasurable. I had to stay for an extended length of time and all the the employees as well as the owners made me feel at home. My home away from home. I'd definitely stay here again. Very nice caring people..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r348684845-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348684845</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>better stay this time, average experience</t>
+  </si>
+  <si>
+    <t>This hotel has been updated since we stayed here last year (the VA hospital utilizes this facility for out-of-town patients) – the carpets looked like they had been replaced, the suites felt cleaner, the facility grounds were better maintained. Unfortunately, the elevator is still in pretty rough condition. The AC would work when it wanted to – there was really no middle ground between humid/warm and cold. Randomly each night the AC would not come on for several hours, then it would work fine again. Better experience this time, but I wouldn't want to stay more than a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>This hotel has been updated since we stayed here last year (the VA hospital utilizes this facility for out-of-town patients) – the carpets looked like they had been replaced, the suites felt cleaner, the facility grounds were better maintained. Unfortunately, the elevator is still in pretty rough condition. The AC would work when it wanted to – there was really no middle ground between humid/warm and cold. Randomly each night the AC would not come on for several hours, then it would work fine again. Better experience this time, but I wouldn't want to stay more than a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r343079262-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343079262</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>RENOVATED &amp; AWESOME CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying here from Jan 3-27 due to a family members critical surgery at St. Luke's Hospital, Houston, TX .  FROM THE MOMENT OF CHECK-in to our departure, simply EVERY individual we interacted with at this property was at all times, very professional and polite. Whether it be with directions or recommendations on the best restaurants that delivered food, they were at all times operative and polite. 
+Granted we did not stay here prior to their renovation late fall of 2016, but I had read those envies and can tell you we did not have one thing that was an issue. The laundry facilities were very clean. Our room with a kitchenette and bed it ha sofa bed was very very roomy and comfortable. Since we had to go to the medical center everyday the fact that the shuttle service provided 7 day service was wonderful. The shuttle service also offers twice a day runs to local grocery stores as well as places to grab a bite to eat. There are numerous places within walking distance to eat whether it be sit down or fast food. We especially liked Anthone's Poor Boy's , Free Birds Burritos and Olive Garden. Hoever we were able to cut our food cots down by the fact that we choos to utilize our kitchen for breakfast and dinner. They do not have a mini fridge, it is a FULL SIZE refrigerator....We had the pleasure of staying here from Jan 3-27 due to a family members critical surgery at St. Luke's Hospital, Houston, TX .  FROM THE MOMENT OF CHECK-in to our departure, simply EVERY individual we interacted with at this property was at all times, very professional and polite. Whether it be with directions or recommendations on the best restaurants that delivered food, they were at all times operative and polite. Granted we did not stay here prior to their renovation late fall of 2016, but I had read those envies and can tell you we did not have one thing that was an issue. The laundry facilities were very clean. Our room with a kitchenette and bed it ha sofa bed was very very roomy and comfortable. Since we had to go to the medical center everyday the fact that the shuttle service provided 7 day service was wonderful. The shuttle service also offers twice a day runs to local grocery stores as well as places to grab a bite to eat. There are numerous places within walking distance to eat whether it be sit down or fast food. We especially liked Anthone's Poor Boy's , Free Birds Burritos and Olive Garden. Hoever we were able to cut our food cots down by the fact that we choos to utilize our kitchen for breakfast and dinner. They do not have a mini fridge, it is a FULL SIZE refrigerator. You must request their "kitchen Pack" as it does not come with every room as not everyone uses the kitchenette.  Ahmed, the manager always took the time to say, hello, have a good day when we departed and entered the facility. Should we need to return to the Houston area again under any circumstances-we will CERTAINLY be sure to come back here. Simply, a delightful stay; you won't be disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We had the pleasure of staying here from Jan 3-27 due to a family members critical surgery at St. Luke's Hospital, Houston, TX .  FROM THE MOMENT OF CHECK-in to our departure, simply EVERY individual we interacted with at this property was at all times, very professional and polite. Whether it be with directions or recommendations on the best restaurants that delivered food, they were at all times operative and polite. 
+Granted we did not stay here prior to their renovation late fall of 2016, but I had read those envies and can tell you we did not have one thing that was an issue. The laundry facilities were very clean. Our room with a kitchenette and bed it ha sofa bed was very very roomy and comfortable. Since we had to go to the medical center everyday the fact that the shuttle service provided 7 day service was wonderful. The shuttle service also offers twice a day runs to local grocery stores as well as places to grab a bite to eat. There are numerous places within walking distance to eat whether it be sit down or fast food. We especially liked Anthone's Poor Boy's , Free Birds Burritos and Olive Garden. Hoever we were able to cut our food cots down by the fact that we choos to utilize our kitchen for breakfast and dinner. They do not have a mini fridge, it is a FULL SIZE refrigerator....We had the pleasure of staying here from Jan 3-27 due to a family members critical surgery at St. Luke's Hospital, Houston, TX .  FROM THE MOMENT OF CHECK-in to our departure, simply EVERY individual we interacted with at this property was at all times, very professional and polite. Whether it be with directions or recommendations on the best restaurants that delivered food, they were at all times operative and polite. Granted we did not stay here prior to their renovation late fall of 2016, but I had read those envies and can tell you we did not have one thing that was an issue. The laundry facilities were very clean. Our room with a kitchenette and bed it ha sofa bed was very very roomy and comfortable. Since we had to go to the medical center everyday the fact that the shuttle service provided 7 day service was wonderful. The shuttle service also offers twice a day runs to local grocery stores as well as places to grab a bite to eat. There are numerous places within walking distance to eat whether it be sit down or fast food. We especially liked Anthone's Poor Boy's , Free Birds Burritos and Olive Garden. Hoever we were able to cut our food cots down by the fact that we choos to utilize our kitchen for breakfast and dinner. They do not have a mini fridge, it is a FULL SIZE refrigerator. You must request their "kitchen Pack" as it does not come with every room as not everyone uses the kitchenette.  Ahmed, the manager always took the time to say, hello, have a good day when we departed and entered the facility. Should we need to return to the Houston area again under any circumstances-we will CERTAINLY be sure to come back here. Simply, a delightful stay; you won't be disappointed.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2198,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2230,4466 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>62</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>77</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>159</v>
+      </c>
+      <c r="X15" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>168</v>
+      </c>
+      <c r="X16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J17" t="s">
+        <v>173</v>
+      </c>
+      <c r="K17" t="s">
+        <v>174</v>
+      </c>
+      <c r="L17" t="s">
+        <v>175</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>176</v>
+      </c>
+      <c r="X17" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>185</v>
+      </c>
+      <c r="X18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>218</v>
+      </c>
+      <c r="X22" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>223</v>
+      </c>
+      <c r="K23" t="s">
+        <v>224</v>
+      </c>
+      <c r="L23" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>226</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>227</v>
+      </c>
+      <c r="X23" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>231</v>
+      </c>
+      <c r="J24" t="s">
+        <v>232</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>77</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>268</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>284</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>268</v>
+      </c>
+      <c r="O31" t="s">
+        <v>293</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>294</v>
+      </c>
+      <c r="X31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s">
+        <v>317</v>
+      </c>
+      <c r="L34" t="s">
+        <v>318</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>333</v>
+      </c>
+      <c r="K36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>337</v>
+      </c>
+      <c r="X36" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>341</v>
+      </c>
+      <c r="J37" t="s">
+        <v>342</v>
+      </c>
+      <c r="K37" t="s">
+        <v>343</v>
+      </c>
+      <c r="L37" t="s">
+        <v>344</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>336</v>
+      </c>
+      <c r="O37" t="s">
+        <v>167</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>345</v>
+      </c>
+      <c r="X37" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>348</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>349</v>
+      </c>
+      <c r="J38" t="s">
+        <v>350</v>
+      </c>
+      <c r="K38" t="s">
+        <v>351</v>
+      </c>
+      <c r="L38" t="s">
+        <v>352</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>353</v>
+      </c>
+      <c r="O38" t="s">
+        <v>293</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>354</v>
+      </c>
+      <c r="X38" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>357</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>358</v>
+      </c>
+      <c r="J39" t="s">
+        <v>359</v>
+      </c>
+      <c r="K39" t="s">
+        <v>360</v>
+      </c>
+      <c r="L39" t="s">
+        <v>361</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O39" t="s">
+        <v>293</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>362</v>
+      </c>
+      <c r="O40" t="s">
+        <v>167</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>368</v>
+      </c>
+      <c r="X40" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" t="s">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>362</v>
+      </c>
+      <c r="O41" t="s">
+        <v>167</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>376</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>362</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>376</v>
+      </c>
+      <c r="X42" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>385</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>386</v>
+      </c>
+      <c r="J43" t="s">
+        <v>387</v>
+      </c>
+      <c r="K43" t="s">
+        <v>388</v>
+      </c>
+      <c r="L43" t="s">
+        <v>389</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" t="s">
+        <v>293</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>398</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>399</v>
+      </c>
+      <c r="X44" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>408</v>
+      </c>
+      <c r="X45" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>407</v>
+      </c>
+      <c r="O46" t="s">
+        <v>167</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>416</v>
+      </c>
+      <c r="X46" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s">
+        <v>423</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>424</v>
+      </c>
+      <c r="O47" t="s">
+        <v>167</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>433</v>
+      </c>
+      <c r="O48" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>434</v>
+      </c>
+      <c r="X48" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" t="s">
+        <v>440</v>
+      </c>
+      <c r="L49" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>433</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>434</v>
+      </c>
+      <c r="X49" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>448</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>449</v>
+      </c>
+      <c r="X50" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" t="s">
+        <v>445</v>
+      </c>
+      <c r="K51" t="s">
+        <v>454</v>
+      </c>
+      <c r="L51" t="s">
+        <v>455</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>448</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>449</v>
+      </c>
+      <c r="X51" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>458</v>
+      </c>
+      <c r="J52" t="s">
+        <v>445</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>448</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>449</v>
+      </c>
+      <c r="X52" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>462</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>463</v>
+      </c>
+      <c r="J53" t="s">
+        <v>464</v>
+      </c>
+      <c r="K53" t="s">
+        <v>465</v>
+      </c>
+      <c r="L53" t="s">
+        <v>466</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>448</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>467</v>
+      </c>
+      <c r="X53" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>475</v>
+      </c>
+      <c r="O54" t="s">
+        <v>167</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>476</v>
+      </c>
+      <c r="X54" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>480</v>
+      </c>
+      <c r="J55" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>482</v>
+      </c>
+      <c r="L55" t="s">
+        <v>483</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>484</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>485</v>
+      </c>
+      <c r="X55" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>488</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>489</v>
+      </c>
+      <c r="J56" t="s">
+        <v>490</v>
+      </c>
+      <c r="K56" t="s">
+        <v>491</v>
+      </c>
+      <c r="L56" t="s">
+        <v>492</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>493</v>
+      </c>
+      <c r="X56" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>497</v>
+      </c>
+      <c r="J57" t="s">
+        <v>498</v>
+      </c>
+      <c r="K57" t="s">
+        <v>499</v>
+      </c>
+      <c r="L57" t="s">
+        <v>500</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>167</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>501</v>
+      </c>
+      <c r="X57" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>504</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>505</v>
+      </c>
+      <c r="J58" t="s">
+        <v>506</v>
+      </c>
+      <c r="K58" t="s">
+        <v>507</v>
+      </c>
+      <c r="L58" t="s">
+        <v>508</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>484</v>
+      </c>
+      <c r="O58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>509</v>
+      </c>
+      <c r="X58" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>512</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>513</v>
+      </c>
+      <c r="J59" t="s">
+        <v>514</v>
+      </c>
+      <c r="K59" t="s">
+        <v>515</v>
+      </c>
+      <c r="L59" t="s">
+        <v>516</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>517</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>518</v>
+      </c>
+      <c r="X59" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>521</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>522</v>
+      </c>
+      <c r="J60" t="s">
+        <v>523</v>
+      </c>
+      <c r="K60" t="s">
+        <v>524</v>
+      </c>
+      <c r="L60" t="s">
+        <v>525</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>526</v>
+      </c>
+      <c r="O60" t="s">
+        <v>62</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>527</v>
+      </c>
+      <c r="X60" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>530</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>531</v>
+      </c>
+      <c r="J61" t="s">
+        <v>532</v>
+      </c>
+      <c r="K61" t="s">
+        <v>533</v>
+      </c>
+      <c r="L61" t="s">
+        <v>534</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>526</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>535</v>
+      </c>
+      <c r="X61" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>538</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>539</v>
+      </c>
+      <c r="J62" t="s">
+        <v>540</v>
+      </c>
+      <c r="K62" t="s">
+        <v>541</v>
+      </c>
+      <c r="L62" t="s">
+        <v>542</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>543</v>
+      </c>
+      <c r="O62" t="s">
+        <v>62</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>544</v>
+      </c>
+      <c r="X62" t="s">
+        <v>545</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>547</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>548</v>
+      </c>
+      <c r="J63" t="s">
+        <v>549</v>
+      </c>
+      <c r="K63" t="s">
+        <v>550</v>
+      </c>
+      <c r="L63" t="s">
+        <v>551</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>543</v>
+      </c>
+      <c r="O63" t="s">
+        <v>77</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>552</v>
+      </c>
+      <c r="X63" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>555</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>556</v>
+      </c>
+      <c r="J64" t="s">
+        <v>557</v>
+      </c>
+      <c r="K64" t="s">
+        <v>558</v>
+      </c>
+      <c r="L64" t="s">
+        <v>559</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>543</v>
+      </c>
+      <c r="O64" t="s">
+        <v>77</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>560</v>
+      </c>
+      <c r="X64" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>563</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>564</v>
+      </c>
+      <c r="J65" t="s">
+        <v>565</v>
+      </c>
+      <c r="K65" t="s">
+        <v>566</v>
+      </c>
+      <c r="L65" t="s">
+        <v>567</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>543</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>568</v>
+      </c>
+      <c r="X65" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>571</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>572</v>
+      </c>
+      <c r="J66" t="s">
+        <v>573</v>
+      </c>
+      <c r="K66" t="s">
+        <v>574</v>
+      </c>
+      <c r="L66" t="s">
+        <v>575</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>576</v>
+      </c>
+      <c r="X66" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>579</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>580</v>
+      </c>
+      <c r="J67" t="s">
+        <v>581</v>
+      </c>
+      <c r="K67" t="s">
+        <v>582</v>
+      </c>
+      <c r="L67" t="s">
+        <v>583</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>584</v>
+      </c>
+      <c r="O67" t="s">
+        <v>167</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>585</v>
+      </c>
+      <c r="X67" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>588</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>589</v>
+      </c>
+      <c r="J68" t="s">
+        <v>590</v>
+      </c>
+      <c r="K68" t="s">
+        <v>591</v>
+      </c>
+      <c r="L68" t="s">
+        <v>592</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>593</v>
+      </c>
+      <c r="O68" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_223.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_223.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="953">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,120 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r614144909-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>108130</t>
+  </si>
+  <si>
+    <t>614144909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDCC </t>
+  </si>
+  <si>
+    <t>Ahmed goes out of his way to make sure you are comfortable and have all that you need. This one has 3 exercise equipment and a pool. It is about 2 1/2 miles from the medical center. Would definitely recommend if you need a lower cost hotel with kitchen.</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r586724078-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586724078</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Mary Ann Crugnale</t>
+  </si>
+  <si>
+    <t>The entire staff st the ESA La Concha is professional, courteous and knowledgeable not only about the property but also about shopping, restaurants, churches and business entities in the area.Terry, shuttle driver was especially helpful with my luggage when I was moving in and transferring from another propertyAnnie did an excellent job with my weekly housekeeping.The front desk personnel were always smiling ans made me feel welcome and as a valued customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>The entire staff st the ESA La Concha is professional, courteous and knowledgeable not only about the property but also about shopping, restaurants, churches and business entities in the area.Terry, shuttle driver was especially helpful with my luggage when I was moving in and transferring from another propertyAnnie did an excellent job with my weekly housekeeping.The front desk personnel were always smiling ans made me feel welcome and as a valued customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r612635327-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>612635327</t>
+  </si>
+  <si>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>I was referd from md Anderson hospital, really enjoyed staying here trough all my process great staff !!! Especially Lisa such a wonderful person!!!!!  Me encanto estar aquí durante todo mi proceso , gracias a todos los trabajadores muy amables !!! Especialmente Liza ️MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded 5 days ago</t>
+  </si>
+  <si>
+    <t>Responded 5 days ago</t>
+  </si>
+  <si>
+    <t>I was referd from md Anderson hospital, really enjoyed staying here trough all my process great staff !!! Especially Lisa such a wonderful person!!!!!  Me encanto estar aquí durante todo mi proceso , gracias a todos los trabajadores muy amables !!! Especialmente Liza ️More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r601817112-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601817112</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>horrible. do not go here!-key didn't work until 25 swipes later-no room service for three nights!-smells musty and old-breakfast pathetic-kitchen appliances looked out of date, and from the 1900s.-repairs were homemade and not by a professional. overall, should be rebuilt and new manager appointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>horrible. do not go here!-key didn't work until 25 swipes later-no room service for three nights!-smells musty and old-breakfast pathetic-kitchen appliances looked out of date, and from the 1900s.-repairs were homemade and not by a professional. overall, should be rebuilt and new manager appointed.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r600472600-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>108130</t>
-  </si>
-  <si>
     <t>600472600</t>
   </si>
   <si>
@@ -174,16 +276,10 @@
     <t>Our stay here was more than disappointing.  The room was dirtt and smelled.  We asked to have it cleaned and 2 hours later upon our return nothing had been done.  The utensils for the kitchenette were unacceptable. 2 spoons, 2 forks, you get the picture.  No ice machine on the entire property.  The most concerning was the managements continual lack of attention to the commitments made as well as the treatment of the most vulnerable guests.  Many of the guests are patients at MD Anderson Cancer Center.  The smoking rules are not administered- one day we walked out of our room to find the garbage can outside the door smoking- how does that happen?  CA patients thru out the facility- shameful.  We left after a few days.  MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2018</t>
   </si>
   <si>
     <t>Our stay here was more than disappointing.  The room was dirtt and smelled.  We asked to have it cleaned and 2 hours later upon our return nothing had been done.  The utensils for the kitchenette were unacceptable. 2 spoons, 2 forks, you get the picture.  No ice machine on the entire property.  The most concerning was the managements continual lack of attention to the commitments made as well as the treatment of the most vulnerable guests.  Many of the guests are patients at MD Anderson Cancer Center.  The smoking rules are not administered- one day we walked out of our room to find the garbage can outside the door smoking- how does that happen?  CA patients thru out the facility- shameful.  We left after a few days.  More</t>
@@ -204,9 +300,6 @@
     <t>This extended stay made a 10 day business trip easy and relaxing. There was every amenity available that you could possibly need for a temporary living situation and the large, comfortable rooms made it easy to relax. Highly recommend this extended stayMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 3, 2018</t>
   </si>
   <si>
@@ -231,6 +324,60 @@
     <t>I was part of a 10 day business trip where 23 people stayed in the Extended Stay America.  They were accommodating to all of our rooming needs, as well as they were willing to hold all of our luggage and let us check in a couple hours early when our flight came in hours before the check in time.  Rooms were clean, and they provided all the cooking utensils we needed.  Their pool made for a great place for all of our staff to relax and hang out together after a long day of work.  I would recommend this place to anyone!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r590612808-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590612808</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Family Fun</t>
+  </si>
+  <si>
+    <t>Tam Tam Tam is all u can say a wonderful manager she addressed The issue we had with our refrigerator not working properly the following morning at check out the owner extended our stay and gave my family and I a free room he also credited us for the day before.. he was 99% booked but he made the effort to squeeze us in and make us comfortable I will definitely patronize this establishment in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2018</t>
+  </si>
+  <si>
+    <t>Tam Tam Tam is all u can say a wonderful manager she addressed The issue we had with our refrigerator not working properly the following morning at check out the owner extended our stay and gave my family and I a free room he also credited us for the day before.. he was 99% booked but he made the effort to squeeze us in and make us comfortable I will definitely patronize this establishment in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r584196927-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584196927</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Love it</t>
+  </si>
+  <si>
+    <t>I am here for medical purposes. Every time I'm here in Houston I booked it here all the time. The manager and all staff here are very accommodating, friendly and helpful. Shuttle service also is a plus going to the hospital.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2018</t>
+  </si>
+  <si>
+    <t>I am here for medical purposes. Every time I'm here in Houston I booked it here all the time. The manager and all staff here are very accommodating, friendly and helpful. Shuttle service also is a plus going to the hospital.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r582887108-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -246,12 +393,6 @@
     <t>When we went to check in, I told the lady my name and she immediately said, "no, not at this location." I told her yes, it is, and showed her my reservation I made back in January. She says "oh yeah here it is, I was looking at the wrong screen." That's your worst fear is driving two hours from home to be told you don't have a reservation when you know you do. After she found us, we got checked in pretty quickly. The room was okay. I was impressed by the full size kitchen, especially the fridge. We were by the pool so even with the curtains drawn, it was really bright all night from the lights, though I do appreciate the added lights for security. There were only about 30 channels and the bed was okay, but I didn't feel like it was super clean. Overall though, we only needed a place close to our venue for one night and it did the job. Their grab and go breakfast had hot chocolate/coffee, granola bars, and muffins. Our commute to our event wasn't less than 30 seconds with a lot of great stores and restaurants around us. I would still suggest it if you're looking for something affordable, safe, and close to NRG.MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 26, 2018</t>
   </si>
   <si>
@@ -309,6 +450,57 @@
     <t>Stayed in this hotel for 6 weeks while I had my treatments at MD Anderson. The hotel was recommended by a staff member from MD Anderson for it’s convenient location and for the cost of the room. Overall the stay has been pleasant. The staff at this hotel have been friendly and courteous. This place is ideal for the location where it’s at. We are but 10 min from MD Anderson, a walking distance from Fiesta supermarket, Walgreens, target, Kroger’s, and several great restaurants. This hotel offers free shuttle service to and from the hotel (I stopped using them because off some of the drivers, the way they drove would make me nauseas) and to MD Anderson. The small kitchenettes in the rooms are ideal. Every appliance in the room worked. The room service here is every Friday just in case your staying for an extended stay. We took care off our own room service, which the staff was very helpful by providing us the linens that we needed to make our beds and change our towels. I recommended this hotel for anyone that finds themselves similar to our situation that needs to be close to MD Anderson. Do not blame the staff for the other tenants noise or how dirty they can be. In the six weeks We have been here my family and I have overall had a good experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r577181565-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577181565</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Awesome great people I could not have made it to Houston for my medical trip without them! Gave me step by step directions when I got list. Personnel especially the manager was pleasant caring and made me feel at ease.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Awesome great people I could not have made it to Houston for my medical trip without them! Gave me step by step directions when I got list. Personnel especially the manager was pleasant caring and made me feel at ease.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r574839498-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574839498</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Ken was great. She greet us with her smile! I highly recommend this hotel. Near the shopping center and NRG stadium. If you need kitchen stuffs just call or drop by at the front desk and they will prepare it for you. Everyone was nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Ken was great. She greet us with her smile! I highly recommend this hotel. Near the shopping center and NRG stadium. If you need kitchen stuffs just call or drop by at the front desk and they will prepare it for you. Everyone was nice and friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r574650175-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -321,7 +513,7 @@
     <t>Great hotel</t>
   </si>
   <si>
-    <t>Such a great staff❤️❤️❤️ from the time we arrived to the very last second our visit has been awesome! The front desk is helpful and accommodating. I will be back soon and stay here again. We asked for the moon and they gave it to us! Very clean very spacious room and comfortable  bed! Slept great and felt very safe.MoreShow less</t>
+    <t>Such a great staff️️️ from the time we arrived to the very last second our visit has been awesome! The front desk is helpful and accommodating. I will be back soon and stay here again. We asked for the moon and they gave it to us! Very clean very spacious room and comfortable  bed! Slept great and felt very safe.MoreShow less</t>
   </si>
   <si>
     <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 21, 2018</t>
@@ -330,7 +522,7 @@
     <t>Responded April 21, 2018</t>
   </si>
   <si>
-    <t>Such a great staff❤️❤️❤️ from the time we arrived to the very last second our visit has been awesome! The front desk is helpful and accommodating. I will be back soon and stay here again. We asked for the moon and they gave it to us! Very clean very spacious room and comfortable  bed! Slept great and felt very safe.More</t>
+    <t>Such a great staff️️️ from the time we arrived to the very last second our visit has been awesome! The front desk is helpful and accommodating. I will be back soon and stay here again. We asked for the moon and they gave it to us! Very clean very spacious room and comfortable  bed! Slept great and felt very safe.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r572900834-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
@@ -348,9 +540,6 @@
     <t>MD Anderson provided a stay for me at Extended Stay, La Concha while in Houston to receive my treatment. The staff were professional and caring. Room was clean and provided everything I needed. Thanks to the staff and MDA.MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 12, 2018</t>
   </si>
   <si>
@@ -387,6 +576,51 @@
     <t>We have stayed at 1303 Laconcha, Houston, tx about a dozen times in the past 2 years for medical purposes.  This is an excellent location to the medical addresses and great on long stays when you tire of restaurants and want to cook in your quarters.  Top groceries, Texas BBQ, and Seafood are within a mile.  The staff and manager are very courteous and attentive.  Our rooms have always been clean and nicely furnished.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r572431759-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572431759</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Keep looking!!</t>
+  </si>
+  <si>
+    <t>I would not stay here again too many little things that made the stay not comfortable. Droppings of mice or something weird in the drawers made me not want to put anything in it. The bathroom toilet had a horrible black ring around the top, disgusting! The shower made lots of squeaky noise while taking a shower. And the room had a heavy cigarette smell to it it was bad!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I would not stay here again too many little things that made the stay not comfortable. Droppings of mice or something weird in the drawers made me not want to put anything in it. The bathroom toilet had a horrible black ring around the top, disgusting! The shower made lots of squeaky noise while taking a shower. And the room had a heavy cigarette smell to it it was bad!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r570455101-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570455101</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>This hotel is outdated, smell old and I walked through spider website in the room as well as hallway. This hotel is too close to high attraction Areas to be so horrible. Things have rust, bed sheets didn't have a fresh smell. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is outdated, smell old and I walked through spider website in the room as well as hallway. This hotel is too close to high attraction Areas to be so horrible. Things have rust, bed sheets didn't have a fresh smell. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r568543948-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -450,6 +684,57 @@
     <t>The hotel is good. You have to pay extra for housekeeping. It worked out well for us during the Houston Livestock Show. The breakfast is a little short only offering granola bars and muffins. The laundry room worked well for us also.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r565204472-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565204472</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Review of Visits</t>
+  </si>
+  <si>
+    <t>We have returned to Extended Stay La Concha several times in the past 3 years.  We return here because of the quality of service and rooms.  Once we stayed 4 months and the option to cook your own food, and the convenience of shopping is tops.  You can walk to a large food store.  A variety of good dining is within a mile.  Likewise drug stores are close by.  The well known medical centers are very handy from this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>We have returned to Extended Stay La Concha several times in the past 3 years.  We return here because of the quality of service and rooms.  Once we stayed 4 months and the option to cook your own food, and the convenience of shopping is tops.  You can walk to a large food store.  A variety of good dining is within a mile.  Likewise drug stores are close by.  The well known medical centers are very handy from this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r559590121-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559590121</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Pay more and stay across the street at holiday inn</t>
+  </si>
+  <si>
+    <t>Didnt have extra pillows which I needed and stressed since I was staying after surgery said they did do laundry until 11 at night. The blanket for the pull out couch smelled like it was never washed from previous people. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2018</t>
+  </si>
+  <si>
+    <t>Didnt have extra pillows which I needed and stressed since I was staying after surgery said they did do laundry until 11 at night. The blanket for the pull out couch smelled like it was never washed from previous people. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r559020274-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -465,9 +750,6 @@
     <t>I did not enjoy my stay at all. I did not like no housekeeping unless you stay a week or longer. I did not like how dirty the room was when I checked in. I did not like there was no free breakfast even though it was advertised. I will never stay at this place againMoreShow less</t>
   </si>
   <si>
-    <t>February 2018</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 8, 2018</t>
   </si>
   <si>
@@ -519,9 +801,6 @@
     <t>My husband &amp; I checked in here for a couple weeks stay while he was getting tests done and now treatments at MD Anderson Cancer Center. We are going to extend our stay at least another week or two while he undergoes treatments. Ahmed the manager has been very accommodating and Annie is wonderful with cleaning our room and helping with any extra toiletries we may need while staying here! Highly recommended...Lynne HMoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 17, 2018</t>
   </si>
   <si>
@@ -531,6 +810,54 @@
     <t>My husband &amp; I checked in here for a couple weeks stay while he was getting tests done and now treatments at MD Anderson Cancer Center. We are going to extend our stay at least another week or two while he undergoes treatments. Ahmed the manager has been very accommodating and Annie is wonderful with cleaning our room and helping with any extra toiletries we may need while staying here! Highly recommended...Lynne HMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r554069412-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554069412</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff, Pretty good location</t>
+  </si>
+  <si>
+    <t>I stayed at this location from 6-5-17 to 11-30-17 because my company has direct billing with them I didn't see what the monthly rate was. The first room I was placed in was on the third floor and it smelled of cigarette smoke. I told the front desk and they sprayed pine sol everywhere, but  It didn't help so they let me choose from 3 other rooms they had available and I chose what I thought was the best out of the three. I stayed in that same room for the rest of my time there. The hotel had been remodeled but it still is an older hotel. This place does have kitchens so people do cook and of coarse we all have different opinions of what good food is supposed to smell like.  So if you are smell sensitive then this my be an issue for you. On 3 or 4 occasions the smoke alarms went off in the middle of the night and woke the whole place because they are all tied together. It turned out someone had burnt some food or was cooking steak in a skillet . The guest were  pretty quiet even with it being close to the NRG stadium. After the hurricane the place was booked and there were lots of kids running around and making noise but have to say they all quieted around 9:30 pm. I never used any of their house...I stayed at this location from 6-5-17 to 11-30-17 because my company has direct billing with them I didn't see what the monthly rate was. The first room I was placed in was on the third floor and it smelled of cigarette smoke. I told the front desk and they sprayed pine sol everywhere, but  It didn't help so they let me choose from 3 other rooms they had available and I chose what I thought was the best out of the three. I stayed in that same room for the rest of my time there. The hotel had been remodeled but it still is an older hotel. This place does have kitchens so people do cook and of coarse we all have different opinions of what good food is supposed to smell like.  So if you are smell sensitive then this my be an issue for you. On 3 or 4 occasions the smoke alarms went off in the middle of the night and woke the whole place because they are all tied together. It turned out someone had burnt some food or was cooking steak in a skillet . The guest were  pretty quiet even with it being close to the NRG stadium. After the hurricane the place was booked and there were lots of kids running around and making noise but have to say they all quieted around 9:30 pm. I never used any of their house keeping because I bought all my own linens and small appliances including a vacuum cleaner from Walmart since I new I would be there for so long. I used an off site laundry service to wash all my things because it was more convenient.  They do have washers, dryers, couple of vending machines and a fitness area for basic cardio. It was a place close to my project and they had parking lot security which was comforting to know. All in all it was ok nothing spectacular. I probably wouldn't stay again because I am sensitive to smells but like I said it was paid for by the company so I dealt with it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this location from 6-5-17 to 11-30-17 because my company has direct billing with them I didn't see what the monthly rate was. The first room I was placed in was on the third floor and it smelled of cigarette smoke. I told the front desk and they sprayed pine sol everywhere, but  It didn't help so they let me choose from 3 other rooms they had available and I chose what I thought was the best out of the three. I stayed in that same room for the rest of my time there. The hotel had been remodeled but it still is an older hotel. This place does have kitchens so people do cook and of coarse we all have different opinions of what good food is supposed to smell like.  So if you are smell sensitive then this my be an issue for you. On 3 or 4 occasions the smoke alarms went off in the middle of the night and woke the whole place because they are all tied together. It turned out someone had burnt some food or was cooking steak in a skillet . The guest were  pretty quiet even with it being close to the NRG stadium. After the hurricane the place was booked and there were lots of kids running around and making noise but have to say they all quieted around 9:30 pm. I never used any of their house...I stayed at this location from 6-5-17 to 11-30-17 because my company has direct billing with them I didn't see what the monthly rate was. The first room I was placed in was on the third floor and it smelled of cigarette smoke. I told the front desk and they sprayed pine sol everywhere, but  It didn't help so they let me choose from 3 other rooms they had available and I chose what I thought was the best out of the three. I stayed in that same room for the rest of my time there. The hotel had been remodeled but it still is an older hotel. This place does have kitchens so people do cook and of coarse we all have different opinions of what good food is supposed to smell like.  So if you are smell sensitive then this my be an issue for you. On 3 or 4 occasions the smoke alarms went off in the middle of the night and woke the whole place because they are all tied together. It turned out someone had burnt some food or was cooking steak in a skillet . The guest were  pretty quiet even with it being close to the NRG stadium. After the hurricane the place was booked and there were lots of kids running around and making noise but have to say they all quieted around 9:30 pm. I never used any of their house keeping because I bought all my own linens and small appliances including a vacuum cleaner from Walmart since I new I would be there for so long. I used an off site laundry service to wash all my things because it was more convenient.  They do have washers, dryers, couple of vending machines and a fitness area for basic cardio. It was a place close to my project and they had parking lot security which was comforting to know. All in all it was ok nothing spectacular. I probably wouldn't stay again because I am sensitive to smells but like I said it was paid for by the company so I dealt with it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r553931843-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553931843</t>
+  </si>
+  <si>
+    <t>Quaint hotel</t>
+  </si>
+  <si>
+    <t>The stay was very good. The owner was wonderful. I would love to have a coffee pot in the room but they have coffee in the lobby so not a big deal. The shuttle driver was fabulous! I would recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2018</t>
+  </si>
+  <si>
+    <t>The stay was very good. The owner was wonderful. I would love to have a coffee pot in the room but they have coffee in the lobby so not a big deal. The shuttle driver was fabulous! I would recommend this hotel. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r553044265-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -606,6 +933,45 @@
     <t>Feels like home comfort space relaxed beds great storage space nice size kitchen area stove is at great standards ice box nice and clean with ice treys dishwasher works fine air conditioning is amazing I truly have no complaintsMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r548221353-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548221353</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>My family and I stayed here during our visit to Houston. The hotel staff was excellent and very helpful. The room was spacious with a kitchen area which allowed me to prepare our meals instead of spending lots of money dining out. Did I mention they provided me with the pots and dishes!!?? There's nothing better than staying at a hotel that is clean, spacious, and with great staff. I will recommend this hotel to everyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here during our visit to Houston. The hotel staff was excellent and very helpful. The room was spacious with a kitchen area which allowed me to prepare our meals instead of spending lots of money dining out. Did I mention they provided me with the pots and dishes!!?? There's nothing better than staying at a hotel that is clean, spacious, and with great staff. I will recommend this hotel to everyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r546832184-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546832184</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Football trip</t>
+  </si>
+  <si>
+    <t>My husband and I recently made a trip to Houston to attend a football game at NRG stadium. We picked the Extended Stay America hotel because of the proximity to the stadium. We were pleasantly surprised how close the stadium was to walk to, how relatively inexpensive it was for a football game event and having a grocery store and shopping amenities in the immediate area. The staff was exceptionally friendly the entire stay of our visit. Princess, Ken and the other staff were great! They were very accommodating with our requests and answered our questions in regards to the area that we were staying in. This is an older Extended Stay America, but if you want a hospitable staff and a great price for a sporting event, we suggest this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I recently made a trip to Houston to attend a football game at NRG stadium. We picked the Extended Stay America hotel because of the proximity to the stadium. We were pleasantly surprised how close the stadium was to walk to, how relatively inexpensive it was for a football game event and having a grocery store and shopping amenities in the immediate area. The staff was exceptionally friendly the entire stay of our visit. Princess, Ken and the other staff were great! They were very accommodating with our requests and answered our questions in regards to the area that we were staying in. This is an older Extended Stay America, but if you want a hospitable staff and a great price for a sporting event, we suggest this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r546493166-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -679,6 +1045,51 @@
   </si>
   <si>
     <t>night shift clerk had us wait for almost 30 minutes just to check in even though we had already booked the room ahead of time. She charged us what she called a security deposit, next day i saw my statement and found 2 transactions of over $170 total. she was also not sure about giving us a room because her "list" was messed up. horrible service. room did not even have disposable cups. some towels looked brown while some looked bright. Breakfast area was completely gone at 9:20 even thought they said it is open till 9:30. worker told me to come early next time! and after all the room cost is of a 3-4 star hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r545290964-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545290964</t>
+  </si>
+  <si>
+    <t>A great location to stay for business. I am a travel nurse and this was my first travel contrac in Houston, Tx. I recently had a contract in Lafayette, LA and there I stayed at the extended stay as well. The staff is friendly and were always available when necessary. The manger was accomodating to my work schedule with working nights. Thank you guys for everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>A great location to stay for business. I am a travel nurse and this was my first travel contrac in Houston, Tx. I recently had a contract in Lafayette, LA and there I stayed at the extended stay as well. The staff is friendly and were always available when necessary. The manger was accomodating to my work schedule with working nights. Thank you guys for everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r545114211-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545114211</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>Medical visit to Baylor College of Medecine</t>
+  </si>
+  <si>
+    <t>The room had a walk in shower which nicely accommodated my wife's needs.  It was nicely laid out with good amenities.  On long stays you can't beat being able to cook your own food.  This locations is close to top Texas foods, bbq, seafood,  It is a handy distance from all the medical amenities in the area.  They are just minutes away.  Ahmed runs a friendly organization and has the respect of the employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2017</t>
+  </si>
+  <si>
+    <t>The room had a walk in shower which nicely accommodated my wife's needs.  It was nicely laid out with good amenities.  On long stays you can't beat being able to cook your own food.  This locations is close to top Texas foods, bbq, seafood,  It is a handy distance from all the medical amenities in the area.  They are just minutes away.  Ahmed runs a friendly organization and has the respect of the employees.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r533773860-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
@@ -758,6 +1169,57 @@
     <t>if you are looking for just a place to sleep than this is it. because that is all you will get. a clean room to sleep in and a snack for breakfast. very close to nrg park walking distance. i would comeback if there is another football game i wanted to seeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r532509432-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>532509432</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Very dirty and smelly</t>
+  </si>
+  <si>
+    <t>This hotel was incredibly dirty and smelly. Owners and management seem to take no pride in the state of the property. My team could not rest comfortably. We were supposed to stay a second week, but we had to change hotels because this place was so disgusting. Several of us had rashes, became very itchy, and had strange marks/cuts on us. It seemed like they rarely if ever clean. The breakfast is very unimpressive. The workout room smells really bad, is very humid, and has only three pieces of equipment (all cardio). Also, the walls (including external) do very little to dampen against noise. Very disappointing, especially given the price. Would not recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was incredibly dirty and smelly. Owners and management seem to take no pride in the state of the property. My team could not rest comfortably. We were supposed to stay a second week, but we had to change hotels because this place was so disgusting. Several of us had rashes, became very itchy, and had strange marks/cuts on us. It seemed like they rarely if ever clean. The breakfast is very unimpressive. The workout room smells really bad, is very humid, and has only three pieces of equipment (all cardio). Also, the walls (including external) do very little to dampen against noise. Very disappointing, especially given the price. Would not recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r510057669-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510057669</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Very helpful an friendly staff the rooms were very clean they all you need to cook with you just tell them what you need an they bring it to you if your gonna have to stay in Houston for any length of time this would be the place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Very helpful an friendly staff the rooms were very clean they all you need to cook with you just tell them what you need an they bring it to you if your gonna have to stay in Houston for any length of time this would be the place to stayMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r509438718-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -773,9 +1235,6 @@
     <t>Not a bad place to stay for a family. Full size kitchen in our room was nice, the bed was ok. Close to the med center and to NRG. The pool was closed for the first night for "cleaning". Breakfast was muffins in a bag of granola bars that we didn't eat. We had to ask for more pillows, blankets and sheets for the fold away bed, but staff gave us what we needed without problems. MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 7, 2017</t>
   </si>
   <si>
@@ -836,6 +1295,54 @@
     <t>Always a good place to stay for access to medical offices,  I've been staying there since 2007, and location is 10 minutes to the medical district, easy access to shopping, and restaurants are close by.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r506018235-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506018235</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Medical stay</t>
+  </si>
+  <si>
+    <t>Comfortable room. Close to the medical center.Restaurants nearby. Grocery store across the street. Van shuttle to the medical center. Staff was friendly and eager to help. Have stayed here many times while receiving treatment. At the medical center.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Comfortable room. Close to the medical center.Restaurants nearby. Grocery store across the street. Van shuttle to the medical center. Staff was friendly and eager to help. Have stayed here many times while receiving treatment. At the medical center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r504238594-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504238594</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>You get what you paid</t>
+  </si>
+  <si>
+    <t>W tax sixty one is cheap when considering a three star hotel. This property lacks the 3 star amenities &amp; serious updates are required. Very close to NRG but very far or even disconnected to downtown area.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2017</t>
+  </si>
+  <si>
+    <t>W tax sixty one is cheap when considering a three star hotel. This property lacks the 3 star amenities &amp; serious updates are required. Very close to NRG but very far or even disconnected to downtown area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r503056025-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -899,9 +1406,6 @@
     <t>I gave the suite the "white sock" test...it passed.  Well equipped kitcchen.  Supermarket and a few restaurants accross the street.  Great for the money.  Pleasant, helpful staff.  Excellent for medical center stays.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 15, 2017</t>
   </si>
   <si>
@@ -911,6 +1415,45 @@
     <t>I gave the suite the "white sock" test...it passed.  Well equipped kitcchen.  Supermarket and a few restaurants accross the street.  Great for the money.  Pleasant, helpful staff.  Excellent for medical center stays.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r501802716-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501802716</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Overall Review 1303 Laconcha,  Houston</t>
+  </si>
+  <si>
+    <t>Very handy medical, grocery, dining location. The outside and inside accommodations are attractive.  Ahmed and staff give great service.  This is our second long stay and we would do it again. We recommend giving these folks a try.  You'll be glad you did.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2017</t>
+  </si>
+  <si>
+    <t>Very handy medical, grocery, dining location. The outside and inside accommodations are attractive.  Ahmed and staff give great service.  This is our second long stay and we would do it again. We recommend giving these folks a try.  You'll be glad you did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r501633567-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501633567</t>
+  </si>
+  <si>
+    <t>Worse place in America to stay</t>
+  </si>
+  <si>
+    <t>Everything waas horrible. From the management to the staff. Room was filled with smoke and housekeeping did not clean the room. They sprayed Febreeze and basically told me to suck it up. When I informed the front desk about my linens she said and I quote, it won't hurt you for one nightMoreShow less</t>
+  </si>
+  <si>
+    <t>Everything waas horrible. From the management to the staff. Room was filled with smoke and housekeeping did not clean the room. They sprayed Febreeze and basically told me to suck it up. When I informed the front desk about my linens she said and I quote, it won't hurt you for one nightMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r501457543-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -929,12 +1472,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 14, 2017</t>
-  </si>
-  <si>
     <t>The room was great with the kitchen area - I knew I would be there a couple of months because I was having my condo completely remodeled.  With a kitchen, I could cook my own meals and not have to eat out all the time. The room was plenty big to accomadate me and my things - large closet. The staff was very friendly and tried hard to meet my needs.  I would stay here again if needed and also recommend to friends visiting here.More</t>
   </si>
   <si>
@@ -986,6 +1523,48 @@
     <t>It was a good experience. The location of the hotel is perfect. There are many restaurants, shops, grocery stores, pharmacy etc. within walking distance. There is also shuttle service to the Medical Center. All by all perfect location, good hotel with a great price...I would definitely stay again!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r508611518-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508611518</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent place to stay, especially for extended period!</t>
+  </si>
+  <si>
+    <t>The hotel is very very nice.  The room is excellent for our needs.  The staff, all of them, are very friendly and helpful. There is just about anything you could need/want nearby this location.  Some of it just walking distance, others your barely have to drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very very nice.  The room is excellent for our needs.  The staff, all of them, are very friendly and helpful. There is just about anything you could need/want nearby this location.  Some of it just walking distance, others your barely have to drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r495156866-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495156866</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Good value, great location</t>
+  </si>
+  <si>
+    <t>Friendly staff. Very good value. The location is grreat an close to everything. The NRG Stadium at walking distance. A mall with a good variety of stores, supermarkets and places to eat. Also close to main avenues. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff. Very good value. The location is grreat an close to everything. The NRG Stadium at walking distance. A mall with a good variety of stores, supermarkets and places to eat. Also close to main avenues. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r494147202-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1001,9 +1580,6 @@
     <t>Everything was fine, except the room didn't seem totally sanitary (which is important for cancer patients traveling for treatment at the medical centers) so we had to wipe everything down with Clorox Wipes, etc. to be on the safe side. No sign of infestation, though, so that was good! Kitchen was truly a full kitchen. We got a suite with two queen beds; room was large. Elevators seemed a little sketchy; I think they were being worked on. Grocery and other stores are very close and convenient and a shuttle to the medical centers is available. We first booked at another location (Fannin) that was somewhat cheaper, but the reviews on TripAdvisor were so bad for that one that we changed reservations and paid a little more to stay at this location (Kirby) and it was still affordable and met our needs.MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 19, 2017</t>
   </si>
   <si>
@@ -1064,6 +1640,57 @@
     <t>Spent a few days in Houston for the U2 concert It was AWESOME by the way. This hotel is directly across the street from one of the parking lots so we just hat to walk across the street and we were there. Of course the stadium lot was humongous but did not have to pay the huge parking fees for the venue. It is an older building but clean and friendly staff. The rooms have a fridge Microwave stove and sink. If staying a few days ideal. We kept lots of water and snacks. There is a large Fiesta grocery store next door. It is also close to the train to go down town and 1 mile from Chachos which is the most important thing. Has a pool and laundry. As I said walk across the street to the stadium. Will definitely stay again if going to a concert. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r479502035-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479502035</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>M d anderson Patient</t>
+  </si>
+  <si>
+    <t>I needed a comfortable place with a shuttle to M D Anderson Cancer Center.  I go there weekly at the beginning of this Trial.  The hotel was in a good neighborhood, across from a Holiday Inn.  The room has extra space for a full kitchen, bath, and large closet.  The front desk people are friendly  It has a full kitchen, large closet, desk, dining table, and way comfortable bed.  Very convenient, free parking.  It is very simple, spacious, and economical IF you get competative price online.  (They are generous/charitable with patients through the ACS too.)MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>I needed a comfortable place with a shuttle to M D Anderson Cancer Center.  I go there weekly at the beginning of this Trial.  The hotel was in a good neighborhood, across from a Holiday Inn.  The room has extra space for a full kitchen, bath, and large closet.  The front desk people are friendly  It has a full kitchen, large closet, desk, dining table, and way comfortable bed.  Very convenient, free parking.  It is very simple, spacious, and economical IF you get competative price online.  (They are generous/charitable with patients through the ACS too.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r477724125-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477724125</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Great place to stay! The Manager was very helpful and accommodating to us. The rooms are nice and big and we love the location as we stay here during the Houston Livestock Show.  We will definitely encourage others to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2017</t>
+  </si>
+  <si>
+    <t>Great place to stay! The Manager was very helpful and accommodating to us. The rooms are nice and big and we love the location as we stay here during the Houston Livestock Show.  We will definitely encourage others to stay here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r466825632-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1079,9 +1706,6 @@
     <t>We stay at this hotel every year for the World Championship BBQ that takes place at NRG Stadium parking lot and a few days during the Rodeo.The Hotel is in walking distance to the grounds and has plenty of parking for all the guests.The staff and all the employees at this hotel are the most friendly and accommodating people of any hotel I have ever stay in. Always helpful and available.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 11, 2017</t>
   </si>
   <si>
@@ -1133,6 +1757,46 @@
     <t>This is our third time staying at this hotel (the VA puts us up here while in town for our annual review). Each stay has been a little better than the one before. The facilities were updated a little more, there no longer is the smell of smoke in the hallways, the furniture was newer, grounds better maintained, etc. Granted, this time wasn’t as clean as I would have liked, but I attribute that to the Superbowl having occurred two days before our arrival (the hotel is one block from the stadium). Over the course of the three days we were there, it got cleaner each day, so I’m sure they were playing catch-up.The manager was on property each day of our stay which seemed to make everything run more smoothly. Even when there was confusion over our bill, the manager quickly reviewed the error and had it adjusted. Regarding the photos on Tripadvisor and on the Extended Stay website, they are not of this particular facility. While the rooms and pool are similar, they are not true to this property. For a no-fuss, quick couple of days stay, I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r462730642-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462730642</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My granddaughter is in Texas children's </t>
+  </si>
+  <si>
+    <t>I was amazed how clean everything is, I'm here now for a week. It's across the street from restaurants, Fiesta grocery store, Ross, BigLots and more. I'm coming in at night alone I feel safe because I have to use my room key to get in the  front door. Rooms are entered inside the building not on the outside. Towels are easily exchanged at the front desk. Free shuttle and breakfast. Friendly courteous staff. No complaints. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was amazed how clean everything is, I'm here now for a week. It's across the street from restaurants, Fiesta grocery store, Ross, BigLots and more. I'm coming in at night alone I feel safe because I have to use my room key to get in the  front door. Rooms are entered inside the building not on the outside. Towels are easily exchanged at the front desk. Free shuttle and breakfast. Friendly courteous staff. No complaints. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r462596419-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462596419</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Not as good as expected</t>
+  </si>
+  <si>
+    <t>I wasn't expecting a whole lot but this place is just fair. Check-in was easy, there were plenty of luggage carts to help haul our stuff upstairs, but it needs some attention. My room was missing it's smoke detector (brought this up with 3 people, never fixed during my 12 night stay), the room smelled like some type of Middle-eastern food permeated absolutely everything. The kitchen was FILTHY. All the cabinet doors were sticky, the fridge side and top were gross and the vinyl flooring, while nice looking, was filthy in the bathroom and kitchen. We spent about $10 at Big Lots and Kroger for cleaning supplies! The stairwell on the west side had dead bugs on the steps and the handrail looked like it hadn't been wiped down for a year or so, and this did not change over the course of 12 days. The stove/oven knobs were unreadable as well. Housekeeping was hit or miss. We had 2 services and the first one they didn't change the sheets, as they said they would, while the second housekeeper (a very nice Filipino lady) did a fantastic job for what she had to work with.
+In addition, the one and only elevator was down for 4 days, but what was very troubling is the laundry room. $2 each for BOTH the dryer and washer? I'd never paid that much ($4/load), even in Hawaii, and we travel a lot!
+Even though...I wasn't expecting a whole lot but this place is just fair. Check-in was easy, there were plenty of luggage carts to help haul our stuff upstairs, but it needs some attention. My room was missing it's smoke detector (brought this up with 3 people, never fixed during my 12 night stay), the room smelled like some type of Middle-eastern food permeated absolutely everything. The kitchen was FILTHY. All the cabinet doors were sticky, the fridge side and top were gross and the vinyl flooring, while nice looking, was filthy in the bathroom and kitchen. We spent about $10 at Big Lots and Kroger for cleaning supplies! The stairwell on the west side had dead bugs on the steps and the handrail looked like it hadn't been wiped down for a year or so, and this did not change over the course of 12 days. The stove/oven knobs were unreadable as well. Housekeeping was hit or miss. We had 2 services and the first one they didn't change the sheets, as they said they would, while the second housekeeper (a very nice Filipino lady) did a fantastic job for what she had to work with.In addition, the one and only elevator was down for 4 days, but what was very troubling is the laundry room. $2 each for BOTH the dryer and washer? I'd never paid that much ($4/load), even in Hawaii, and we travel a lot!Even though the website says its been recently updated, the kitchen remains very old. The microwave had a build date of 1997 on it, and I'm sure the stove was the same age. Don't expect a remodeled hotel room by any means.Location was pretty decent as a Fiesta Market, Office Depot, Big Lots and Akashi (GREAT RESTAURANT!0 is across the street and Kroger is two streets north. I was happy to see a security guard outside in a car every night after 10 pm, but in that area that's probably a necessary thing.The employees are very nice and helpful but I tend to think the ownership tends to take the inexpensive way out, knowing that persons visiting the Medical Center area have few choices with a kitchen, but come on.....you made a ton of money off the Super Bowl since you are just a few hundred yards away from NRG. Maybe you should invest some of back in the property?Next time I need to spend that amount of time in Houston I'll definitely look at other options, but with a little TLC and investment this place could really shine.MoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't expecting a whole lot but this place is just fair. Check-in was easy, there were plenty of luggage carts to help haul our stuff upstairs, but it needs some attention. My room was missing it's smoke detector (brought this up with 3 people, never fixed during my 12 night stay), the room smelled like some type of Middle-eastern food permeated absolutely everything. The kitchen was FILTHY. All the cabinet doors were sticky, the fridge side and top were gross and the vinyl flooring, while nice looking, was filthy in the bathroom and kitchen. We spent about $10 at Big Lots and Kroger for cleaning supplies! The stairwell on the west side had dead bugs on the steps and the handrail looked like it hadn't been wiped down for a year or so, and this did not change over the course of 12 days. The stove/oven knobs were unreadable as well. Housekeeping was hit or miss. We had 2 services and the first one they didn't change the sheets, as they said they would, while the second housekeeper (a very nice Filipino lady) did a fantastic job for what she had to work with.
+In addition, the one and only elevator was down for 4 days, but what was very troubling is the laundry room. $2 each for BOTH the dryer and washer? I'd never paid that much ($4/load), even in Hawaii, and we travel a lot!
+Even though...I wasn't expecting a whole lot but this place is just fair. Check-in was easy, there were plenty of luggage carts to help haul our stuff upstairs, but it needs some attention. My room was missing it's smoke detector (brought this up with 3 people, never fixed during my 12 night stay), the room smelled like some type of Middle-eastern food permeated absolutely everything. The kitchen was FILTHY. All the cabinet doors were sticky, the fridge side and top were gross and the vinyl flooring, while nice looking, was filthy in the bathroom and kitchen. We spent about $10 at Big Lots and Kroger for cleaning supplies! The stairwell on the west side had dead bugs on the steps and the handrail looked like it hadn't been wiped down for a year or so, and this did not change over the course of 12 days. The stove/oven knobs were unreadable as well. Housekeeping was hit or miss. We had 2 services and the first one they didn't change the sheets, as they said they would, while the second housekeeper (a very nice Filipino lady) did a fantastic job for what she had to work with.In addition, the one and only elevator was down for 4 days, but what was very troubling is the laundry room. $2 each for BOTH the dryer and washer? I'd never paid that much ($4/load), even in Hawaii, and we travel a lot!Even though the website says its been recently updated, the kitchen remains very old. The microwave had a build date of 1997 on it, and I'm sure the stove was the same age. Don't expect a remodeled hotel room by any means.Location was pretty decent as a Fiesta Market, Office Depot, Big Lots and Akashi (GREAT RESTAURANT!0 is across the street and Kroger is two streets north. I was happy to see a security guard outside in a car every night after 10 pm, but in that area that's probably a necessary thing.The employees are very nice and helpful but I tend to think the ownership tends to take the inexpensive way out, knowing that persons visiting the Medical Center area have few choices with a kitchen, but come on.....you made a ton of money off the Super Bowl since you are just a few hundred yards away from NRG. Maybe you should invest some of back in the property?Next time I need to spend that amount of time in Houston I'll definitely look at other options, but with a little TLC and investment this place could really shine.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r459714263-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1199,6 +1863,60 @@
     <t>We were guests of the property on Super Bowl weekend. I cannot say ENOUGH about the amazing staff here.We had an unfortunate incident and the Owner, Ahmed, jumped in to action and saved the day for us!The entire staff is so friendly and professional I felt like I was leaving my family when we had to check out:)Very convenient location and walking distance to just about anything you could need!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r455093326-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455093326</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>business work</t>
+  </si>
+  <si>
+    <t>the service was excellent , loved the room nice and large ,location great close enough to everything , just need to beef up the security ,maya the front desk clerk was the greatest very helpful , if you  need anything she"s thereMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2017</t>
+  </si>
+  <si>
+    <t>the service was excellent , loved the room nice and large ,location great close enough to everything , just need to beef up the security ,maya the front desk clerk was the greatest very helpful , if you  need anything she"s thereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r453454168-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453454168</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Great for a no-frills long stay</t>
+  </si>
+  <si>
+    <t>We spent 6 weeks at the hotel between November and December 2016. The hotel staff - both front office and housekeeping - were extremely pleasant and courteous. Javed Ahmed, the property manager, was especially helpful and insightful. Thanks to him we got to know that all long-staying guests in Houston are entitled to getting all the taxes they pay on their hotel refunded to them.In terms of areas of improvement, the hotel could definitely do with a lounge, a coffee shop and / or a restaurant...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded January 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2017</t>
+  </si>
+  <si>
+    <t>We spent 6 weeks at the hotel between November and December 2016. The hotel staff - both front office and housekeeping - were extremely pleasant and courteous. Javed Ahmed, the property manager, was especially helpful and insightful. Thanks to him we got to know that all long-staying guests in Houston are entitled to getting all the taxes they pay on their hotel refunded to them.In terms of areas of improvement, the hotel could definitely do with a lounge, a coffee shop and / or a restaurant...More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r451353814-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1277,6 +1995,42 @@
     <t>I was very disappointed with out room. Even after being promised the room would be cleaned completely the next day it never happened and the "mystery substance" on the coffee table was never removed. Yuck!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r445430892-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445430892</t>
+  </si>
+  <si>
+    <t>12/19/2016</t>
+  </si>
+  <si>
+    <t>Ok to stay if in a buget</t>
+  </si>
+  <si>
+    <t>Breakfast is coffee and oatmeal. Room was semi-clean but roomy and quiet. No maid service unless you pay an extra $10 per day. I originally paid $47 a night, and it was worth it. The manager was excellent and empathetic to my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Breakfast is coffee and oatmeal. Room was semi-clean but roomy and quiet. No maid service unless you pay an extra $10 per day. I originally paid $47 a night, and it was worth it. The manager was excellent and empathetic to my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r444892945-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444892945</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>great accommodation</t>
+  </si>
+  <si>
+    <t>*Good management*great staff - front desk, housekeepers, and maintenance crew*clean rooms and the house keepers are very dedicated*good location close to my office, and for football lovers NRG  stadium is very close by.Ask the Lord Jesus who directed me here to bless this placeMoreShow less</t>
+  </si>
+  <si>
+    <t>*Good management*great staff - front desk, housekeepers, and maintenance crew*clean rooms and the house keepers are very dedicated*good location close to my office, and for football lovers NRG  stadium is very close by.Ask the Lord Jesus who directed me here to bless this placeMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r443306501-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1292,9 +2046,6 @@
     <t>This was our third stay at ESA while my husband received treatment at MDA. The room layout was perfect for me to work on my  computer and still be able to see my husband at all times. When I was having internet reception issues, the manager moved us to a more centrally located room to meet my needs for fast speed internet. The staff was friendly and provided extras we required. They always acknowledged us when they saw us in the halls or elevator. Quiet most of the time. Location great for MDA and convenient to grocery, restaurants, and shopping. I was impressed that the manager too action to made sure the residence had parking when there was an event at the NRA center.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded December 13, 2016</t>
   </si>
   <si>
@@ -1319,9 +2070,6 @@
     <t>My room was perfect for what I needed.   The location was great for shopping and places to eat.   It was close to entertainment.  The staff was so nice to me and very accommodating!  I have never stayed at a place that was so friendly!   When I checked in I was told to make sure that I was happy with my room, I have never had that happen.  The staff made me feel like family.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded November 15, 2016</t>
   </si>
   <si>
@@ -1349,6 +2097,57 @@
     <t>Came down from Kansas for husband to have surgery at the heart institute. Staff was very friendly and always helpful. They do not disturb when sign is in place, as that should not! The room is like a studio apartment. Have to ask for the cooking stuff, but at no additional charge. Couldn't of asked for anything more for the price! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r430212241-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430212241</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>MDAnderson/Mays Breast Clinic</t>
+  </si>
+  <si>
+    <t>Here for testing for breast cancer testing and treatment. Extended Stay America offers the perfect accommodations for a lengthy stay. The price is reasonable and the amenities allow one to save even more by preparing one's meals and drinks, such as Kool Aid, soft drinks,fruit juice, and iced tea. It's a nice, comfortable place to stay with an easy route to the hospitals, as well as being located across the street from a grocery store and small shopping center with a variety of merchandise. I like it and highly recommend it to others.  May God strengthen you during this period of confusion in your life. May God Bess you in your time of bed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Here for testing for breast cancer testing and treatment. Extended Stay America offers the perfect accommodations for a lengthy stay. The price is reasonable and the amenities allow one to save even more by preparing one's meals and drinks, such as Kool Aid, soft drinks,fruit juice, and iced tea. It's a nice, comfortable place to stay with an easy route to the hospitals, as well as being located across the street from a grocery store and small shopping center with a variety of merchandise. I like it and highly recommend it to others.  May God strengthen you during this period of confusion in your life. May God Bess you in your time of bed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r422888742-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422888742</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome experience </t>
+  </si>
+  <si>
+    <t>This hotel is at a great location!!! We went to go see Beyoncé and it was amazing! The manager and the staff are all great and they are very polite. They helped us with our stay and made it better! Thank you so much! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is at a great location!!! We went to go see Beyoncé and it was amazing! The manager and the staff are all great and they are very polite. They helped us with our stay and made it better! Thank you so much! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r419004097-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1364,9 +2163,6 @@
     <t>Great hotel...oven ready... washer dryer on site. Everyone's attitude is great. Manager always around and very helpful. Resturants, salons, shopping, clothing. The rooms are huge...nice kitchen...great bathroom.MoreShow less</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 26, 2016</t>
   </si>
   <si>
@@ -1406,27 +2202,69 @@
     <t>This is the best hotel I have stayed. The service and friendliness of the staff is superior.  Most of the people that stay here are going to V.A. Or MD Anderson.  They bend over backwards to help the guests.  I definitely recommend this hotel and will absolutely be back!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r416475334-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416475334</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>I had problems with central booking and terms of my reservation the corporate division made for me.The local manager at LaConcha was a TREMENDOUS help!! He got it all worked out and made sure was perks account was set up as well!!Very nice room too!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>I had problems with central booking and terms of my reservation the corporate division made for me.The local manager at LaConcha was a TREMENDOUS help!! He got it all worked out and made sure was perks account was set up as well!!Very nice room too!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r414279115-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414279115</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Preliminary assesment</t>
+  </si>
+  <si>
+    <t>I have been here now for about 2 months, and I can say thus far my experience with the management and the staff has been great. The property is clean and kept so.Kudos to the front desk and the cleaning crews!Thanks,ErikMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2016</t>
+  </si>
+  <si>
+    <t>I have been here now for about 2 months, and I can say thus far my experience with the management and the staff has been great. The property is clean and kept so.Kudos to the front desk and the cleaning crews!Thanks,ErikMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r414206045-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
     <t>414206045</t>
   </si>
   <si>
-    <t>09/03/2016</t>
-  </si>
-  <si>
     <t>Great location, excellent service, convenient to everywhere is Houston. Will stay again</t>
   </si>
   <si>
     <t>I booked for three nights over the Labor Day holiday. Really enjoyed my stay there.  Great location, excellent service, responsive management. This hotel is convenient to everywhere is Houston.  Will stay in this hotel again.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 13, 2016</t>
-  </si>
-  <si>
-    <t>Responded September 13, 2016</t>
-  </si>
-  <si>
     <t>I booked for three nights over the Labor Day holiday. Really enjoyed my stay there.  Great location, excellent service, responsive management. This hotel is convenient to everywhere is Houston.  Will stay in this hotel again.More</t>
   </si>
   <si>
@@ -1445,9 +2283,6 @@
     <t>Due to medical reasons our overnight stay turned into a week stay. There was always someone at the desk during regular hours working hours. The staff shared that the doors were locked at 11 p.m. and how to access the building if we were in that situation. We were always acknowledged when we walked through the lobby. There was a laundry on the first floor which was a big convenience for me. There were also vending machines accessible any time day or night. The continental  breakfast was light and dark roast coffee along with hot water with tea or hot chocolate. There were granola bars and small muffins.  It was enough to hold us over through the early morning appointments until we could get a breakfast. I felt very safe.  The parking lot was well lit and everything was wheelchair accessible. We will stay on our next trip because I liked the room we were in.  Having the  "3 Little Bears"  syndrome our first room smelled a little musty but was tolerable.  The second night's room the air was too dry and I didn't notice until we were in bed.  The third room was just right!  I would recommend this motel.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded September 7, 2016</t>
   </si>
   <si>
@@ -1484,6 +2319,54 @@
     <t>rooms are clean and most people staying are dealing with sickness due to cancer and the staff are such a joy to be around when you are dealing with so much. it is a nice place to be when you cannot be homeMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r410796988-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>410796988</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Best Hotel experience</t>
+  </si>
+  <si>
+    <t>I had a wonderful time, the staff were friendly, professional, attending to my every need.  Manager Ahmed was so nice, Tam, even helped me with my bags as I am handicapped.  I was even surprised there were so many things in walking distance.  Two thumbs up 1303 Laconcha ln Houston Tx Extended Stay America Thank You for a lovely time!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>I had a wonderful time, the staff were friendly, professional, attending to my every need.  Manager Ahmed was so nice, Tam, even helped me with my bags as I am handicapped.  I was even surprised there were so many things in walking distance.  Two thumbs up 1303 Laconcha ln Houston Tx Extended Stay America Thank You for a lovely time!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r403030676-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403030676</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great for Adult and/or Family </t>
+  </si>
+  <si>
+    <t>This place has great accommodations;  renovated building at a reasonable price, staff was great and helpful, walking distance (about 7min) to the NRG stadium. We stayed from Friday August 5, 2016 for the Guns N Roses concert and stayed thru Sunday 8/7/16. Great spacious place for kids (2 Queen beds/sleeper sofa SUITE) near museum district, near shopping center and near freeway. Great stay for family and walking distance to places so you can save all those parking fee and metro also availble. Would definitely stay again and would recommend.Cons: Could have better breakfast, only ToGo breakfast available (oatmeal, muffins, granola bars, coffee, hot chocolate)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>This place has great accommodations;  renovated building at a reasonable price, staff was great and helpful, walking distance (about 7min) to the NRG stadium. We stayed from Friday August 5, 2016 for the Guns N Roses concert and stayed thru Sunday 8/7/16. Great spacious place for kids (2 Queen beds/sleeper sofa SUITE) near museum district, near shopping center and near freeway. Great stay for family and walking distance to places so you can save all those parking fee and metro also availble. Would definitely stay again and would recommend.Cons: Could have better breakfast, only ToGo breakfast available (oatmeal, muffins, granola bars, coffee, hot chocolate)More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r400778577-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1556,6 +2439,57 @@
     <t>We really enjoyed our stay. The room had two queen beds and a sleeper sofa. It also had a full kitchen. The room was very spacious. The staff was very friendly and courteous. They provided dishes pots and pans  for the kitchen. They also have a nice little pool for the family. A nice laundry room and a small exercise room. With The grab and go breakfast you have several choices from fruit to breakfast bars to muffins and coffee.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r393695811-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393695811</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Rating of Extended Stay America - NRG Park - Kirby</t>
+  </si>
+  <si>
+    <t>Ahmed, the manager, and the entire staff were outstanding and extremely helpful. We arrived June 10th and stayed until July 5th 2016 for my wife's medical treatment in Houston, which included removal of a cancerous lung on June 16th. They were extremely accommodating to my wife's medical needs, including providing a recliner for her use during recovery after surgery. They also provided me shuttle service to her hospital. The room had a complete kitchen for a long term stay. They also made arrangements for our daughter and granddaughter when they visited. I would very strongly recommend this hotel to anyone. We will stay there again when we return in August for follow-up checks. Absolutely first rate!    Geoff EggeMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2016</t>
+  </si>
+  <si>
+    <t>Ahmed, the manager, and the entire staff were outstanding and extremely helpful. We arrived June 10th and stayed until July 5th 2016 for my wife's medical treatment in Houston, which included removal of a cancerous lung on June 16th. They were extremely accommodating to my wife's medical needs, including providing a recliner for her use during recovery after surgery. They also provided me shuttle service to her hospital. The room had a complete kitchen for a long term stay. They also made arrangements for our daughter and granddaughter when they visited. I would very strongly recommend this hotel to anyone. We will stay there again when we return in August for follow-up checks. Absolutely first rate!    Geoff EggeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r385618918-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385618918</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Great Place - excellent Staff</t>
+  </si>
+  <si>
+    <t>This is our second stay (1st stay was 5 weeks).  We liked it so much that we made a effort to stay here again. Ahmed, the manager, goes above and beyond to meet our expectations for accommodations.  The desk staff are always available to assist in every need and questions. The rooms are always clean and fresh with fresh towels every day.  It is within a couple blocks of Houston Texans Stadium (NRG Stadium),  Walking distant to Pizza Hut, Panda Express, Hot Wings, Solzie and other numerous fast food places.  Super Target and other major stores are withing couples of blocks,  MD Anderson Cancer Center is within 5 minutes. They provide WiFi, full size microwave, full size refrigerator and stove with 4 burners and oven.  The staff make this a valued place to stay.  The room rate for Houston makes this hotel especially a good value. I felt very safe at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>This is our second stay (1st stay was 5 weeks).  We liked it so much that we made a effort to stay here again. Ahmed, the manager, goes above and beyond to meet our expectations for accommodations.  The desk staff are always available to assist in every need and questions. The rooms are always clean and fresh with fresh towels every day.  It is within a couple blocks of Houston Texans Stadium (NRG Stadium),  Walking distant to Pizza Hut, Panda Express, Hot Wings, Solzie and other numerous fast food places.  Super Target and other major stores are withing couples of blocks,  MD Anderson Cancer Center is within 5 minutes. They provide WiFi, full size microwave, full size refrigerator and stove with 4 burners and oven.  The staff make this a valued place to stay.  The room rate for Houston makes this hotel especially a good value. I felt very safe at this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r373521834-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +2568,57 @@
     <t>I love the view. Friendly. The room was spotless and clean when I came in it smelt like a new home. The have breakfast that last until 9 a.m. just a wonderful quiet place to be. Across from it is the Houston Texans stadium. So this will be the best spot to go if you are traveling to one of there games.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r365279598-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365279598</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>hospital stay</t>
+  </si>
+  <si>
+    <t>We love staying here at EXTENDED STAY on La Concho as we are treated like family and so close to the shopping center on Kirby where we can purchase groceries to cook with the dishes along with the pots and pans that are furnished.  The suites are clean and the "Grab and Go" breakfasts are great when you're in a rush to catch the shuttle for the hospitals.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>We love staying here at EXTENDED STAY on La Concho as we are treated like family and so close to the shopping center on Kirby where we can purchase groceries to cook with the dishes along with the pots and pans that are furnished.  The suites are clean and the "Grab and Go" breakfasts are great when you're in a rush to catch the shuttle for the hospitals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r361911624-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361911624</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Basic OK</t>
+  </si>
+  <si>
+    <t>We stayed here two nights and while the bed was clean and comfortable, the rest of the room was basic, just ok. We had courteous helpFrom the front desk, but thought it unusual that we had to request kitchen items in an extended stay hotel--they gladly supplied things: plates, silverware, cups, coffeemaker, etc., but we had to request them. The location is convenient for medical appointments and they supply a shuttle. The breakfast choice was a granola bar and piece of fruit. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here two nights and while the bed was clean and comfortable, the rest of the room was basic, just ok. We had courteous helpFrom the front desk, but thought it unusual that we had to request kitchen items in an extended stay hotel--they gladly supplied things: plates, silverware, cups, coffeemaker, etc., but we had to request them. The location is convenient for medical appointments and they supply a shuttle. The breakfast choice was a granola bar and piece of fruit. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r360382014-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1649,9 +2634,6 @@
     <t>I didn't have high expectations when I booked this hotel because it was affordable room and a so-so part of town but I was still disappointed. The company website advertises the rooms as "Newly Renovated" this is not true. They have probably been recently painted and had new flooring/carpet but the rest of the room is SO outdated. It has all the original fixtures/cabinets and appliances in the kitchen and bath (which is fine BUT it wasn't advertised this way). In addition, I have NEVER walked into any hotel and not been greeted properly by the front desk person. On arrival, no one was as at the front desk. After a few minutes I heard people in an office and yelled "Hello". Finally, a man came out and said "Last name?". I said "Hello"....did he say "Hello, Welcome, How can I help you?" NOPE. After, I said "Hello" with no response from him, I gave my last name. He said "Driver's license and credit card"...no please, no thank you, nada. Seriously?!?! The next day we asked for a few extra towels. Obviously, I'm not up on the amazing "service" of Extended Stay because I was told to bring my dirty towels to the desk and they would "exchange" them for clean ones. I don't really care what the reason is for this policy. This is just dumb. I'm standing with my shower running needing a towel but I have to...I didn't have high expectations when I booked this hotel because it was affordable room and a so-so part of town but I was still disappointed. The company website advertises the rooms as "Newly Renovated" this is not true. They have probably been recently painted and had new flooring/carpet but the rest of the room is SO outdated. It has all the original fixtures/cabinets and appliances in the kitchen and bath (which is fine BUT it wasn't advertised this way). In addition, I have NEVER walked into any hotel and not been greeted properly by the front desk person. On arrival, no one was as at the front desk. After a few minutes I heard people in an office and yelled "Hello". Finally, a man came out and said "Last name?". I said "Hello"....did he say "Hello, Welcome, How can I help you?" NOPE. After, I said "Hello" with no response from him, I gave my last name. He said "Driver's license and credit card"...no please, no thank you, nada. Seriously?!?! The next day we asked for a few extra towels. Obviously, I'm not up on the amazing "service" of Extended Stay because I was told to bring my dirty towels to the desk and they would "exchange" them for clean ones. I don't really care what the reason is for this policy. This is just dumb. I'm standing with my shower running needing a towel but I have to get dressed to run down to the office? Just crappy a policy and when you add in the "renovated" room wiith no alarm clock and broken lamp shades and a miserable employee at the front desk, it's just not worth it. Oh! And "breakfast" consists of some granola bars and questionable fruit. Blah. I'll stay at the Holiday Inn across the street next time.MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded April 5, 2016</t>
   </si>
   <si>
@@ -1709,6 +2691,48 @@
     <t>Check in was good, had to hunt down a pillowcase for fold-out couch from house keeping; coffee maker has to be requested at front desk and carried up; there was mold growing on bottom of the shower curtain; lots of noise from hall.  The grab and go breakfast  had very little protein components--just a few grams in a cereal bar. No milk...went to the Fiesta across the street.  I was allowed early check in and late check out (one hour each).  Convenient location.  The hotel was renting parking for the rodeo at the same time, but I was able to find a spot.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r355356992-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355356992</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Wonderful As Always</t>
+  </si>
+  <si>
+    <t>Every year a small group of us stay here at the La Concha location for BBQ and a night or two during Rodeo. Our stay for BBQ was excellent and we stayed again last Friday after a long day out at rodeo with the Poultry Auction then the show. Our room was ready, clean and the staff was super nice at check in and check out.The General Manager Ahmed always goes out of his way to make sure everything is/was great with our stay and always is very helpful. It is nice to see a GM there with his staff taking care of his Hotel :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Every year a small group of us stay here at the La Concha location for BBQ and a night or two during Rodeo. Our stay for BBQ was excellent and we stayed again last Friday after a long day out at rodeo with the Poultry Auction then the show. Our room was ready, clean and the staff was super nice at check in and check out.The General Manager Ahmed always goes out of his way to make sure everything is/was great with our stay and always is very helpful. It is nice to see a GM there with his staff taking care of his Hotel :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r355132551-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355132551</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Does Not Honor Reservations!</t>
+  </si>
+  <si>
+    <t>I made a reservation 7 months in advance for this Extended Stay.  I received multiple confirmation emails from Extended Stay up to the day before my arrival.  Upon arrival at the hotel, I was told that there was not a room available.  I was never contacted by the hotel to let me know that I would not have a room.  I was also never given an explanation as to why a room was not available from the front desk or from the manager that was literally hiding behind a wall and making the front desk clerk handle all phone calls and front desk activity by herself.  He acted as an absolute coward throughout this entire ordeal. Never again Extended Stay!  Do not trust that they will have a room for you. They do not honor their confirmations!MoreShow less</t>
+  </si>
+  <si>
+    <t>I made a reservation 7 months in advance for this Extended Stay.  I received multiple confirmation emails from Extended Stay up to the day before my arrival.  Upon arrival at the hotel, I was told that there was not a room available.  I was never contacted by the hotel to let me know that I would not have a room.  I was also never given an explanation as to why a room was not available from the front desk or from the manager that was literally hiding behind a wall and making the front desk clerk handle all phone calls and front desk activity by herself.  He acted as an absolute coward throughout this entire ordeal. Never again Extended Stay!  Do not trust that they will have a room for you. They do not honor their confirmations!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r353785756-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
   </si>
   <si>
@@ -1782,6 +2806,60 @@
   </si>
   <si>
     <t>This hotel has been updated since we stayed here last year (the VA hospital utilizes this facility for out-of-town patients) – the carpets looked like they had been replaced, the suites felt cleaner, the facility grounds were better maintained. Unfortunately, the elevator is still in pretty rough condition. The AC would work when it wanted to – there was really no middle ground between humid/warm and cold. Randomly each night the AC would not come on for several hours, then it would work fine again. Better experience this time, but I wouldn't want to stay more than a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r345063831-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345063831</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>M y room was 226 and it was very nice . House keeping was good and the service was very excellent. I will stay here again every time I'm here in Houston. I recommend  that people stay here in this hotel the service is very wonderful. The beds are very comfortable , this hotel is very clean and the employes are very helpful and nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2016</t>
+  </si>
+  <si>
+    <t>M y room was 226 and it was very nice . House keeping was good and the service was very excellent. I will stay here again every time I'm here in Houston. I recommend  that people stay here in this hotel the service is very wonderful. The beds are very comfortable , this hotel is very clean and the employes are very helpful and nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r344102827-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>344102827</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>More than pleased</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for a medical appointment i had, overall my stay was pleasant the hotel staff was great, the rooms look really nice and clean.overall i highly recommend this place for a stay.The only advice i can give is it would be of great help for all guest if they were able to at least put one ice machine on the property.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Med. Ctr. - NRG Park - Kirby, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel for a medical appointment i had, overall my stay was pleasant the hotel staff was great, the rooms look really nice and clean.overall i highly recommend this place for a stay.The only advice i can give is it would be of great help for all guest if they were able to at least put one ice machine on the property.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d108130-r343079262-Extended_Stay_America_Houston_Med_Ctr_NRG_Park_Kirby-Houston_Texas.html</t>
@@ -2330,22 +3408,22 @@
         <v>48</v>
       </c>
       <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2356,14 +3434,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -2379,34 +3453,34 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2418,13 +3492,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2440,34 +3514,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2479,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="s">
         <v>70</v>
@@ -2522,7 +3596,7 @@
         <v>75</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
         <v>76</v>
@@ -2531,11 +3605,17 @@
         <v>77</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -2583,13 +3663,13 @@
         <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
         <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2644,13 +3724,13 @@
         <v>93</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2696,19 +3776,23 @@
         <v>98</v>
       </c>
       <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2719,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2741,34 +3825,34 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" t="s">
         <v>107</v>
-      </c>
-      <c r="K9" t="s">
-        <v>108</v>
-      </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>110</v>
-      </c>
-      <c r="O9" t="s">
-        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2780,13 +3864,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
@@ -2802,58 +3886,52 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>116</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
         <v>117</v>
       </c>
-      <c r="L10" t="s">
+      <c r="X10" t="s">
         <v>118</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="Y10" t="s">
         <v>119</v>
-      </c>
-      <c r="O10" t="s">
-        <v>62</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -2869,34 +3947,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="J11" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2908,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="X11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -2930,55 +4008,49 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" t="s">
-        <v>133</v>
-      </c>
-      <c r="L12" t="s">
-        <v>134</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="X12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Y12" t="s">
         <v>135</v>
@@ -3018,30 +4090,20 @@
         <v>140</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
         <v>77</v>
       </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
@@ -3089,41 +4151,31 @@
         <v>148</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
         <v>149</v>
       </c>
-      <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
-      <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>150</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>151</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15">
@@ -3139,56 +4191,52 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>154</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" t="s">
         <v>155</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>156</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>157</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>158</v>
-      </c>
-      <c r="O15" t="s">
-        <v>77</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>1</v>
-      </c>
+      <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s">
         <v>159</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>160</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -3204,56 +4252,48 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>162</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>163</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>164</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>165</v>
       </c>
-      <c r="L16" t="s">
-        <v>166</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
-        <v>158</v>
-      </c>
-      <c r="O16" t="s">
-        <v>167</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
         <v>168</v>
-      </c>
-      <c r="X16" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="17">
@@ -3269,34 +4309,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
         <v>171</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>172</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>173</v>
       </c>
-      <c r="K17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L17" t="s">
-        <v>175</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3308,13 +4348,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
+        <v>174</v>
+      </c>
+      <c r="X17" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y17" t="s">
         <v>176</v>
-      </c>
-      <c r="X17" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="18">
@@ -3330,44 +4370,40 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" t="s">
         <v>179</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>180</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>181</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>182</v>
       </c>
-      <c r="L18" t="s">
-        <v>183</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>184</v>
-      </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="n">
         <v>5</v>
       </c>
@@ -3379,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
         <v>185</v>
-      </c>
-      <c r="X18" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -3401,31 +4437,31 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
         <v>188</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>189</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>190</v>
       </c>
-      <c r="K19" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" t="s">
-        <v>192</v>
-      </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
         <v>77</v>
@@ -3440,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20">
@@ -3462,62 +4498,62 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
         <v>196</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>182</v>
+      </c>
+      <c r="O20" t="s">
         <v>197</v>
       </c>
-      <c r="J20" t="s">
-        <v>198</v>
-      </c>
-      <c r="K20" t="s">
-        <v>199</v>
-      </c>
-      <c r="L20" t="s">
-        <v>200</v>
-      </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="s">
-        <v>184</v>
-      </c>
-      <c r="O20" t="s">
-        <v>62</v>
-      </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -3533,58 +4569,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>202</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" t="s">
         <v>204</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>205</v>
       </c>
-      <c r="J21" t="s">
-        <v>206</v>
-      </c>
-      <c r="K21" t="s">
-        <v>207</v>
-      </c>
-      <c r="L21" t="s">
-        <v>208</v>
-      </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22">
@@ -3600,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3609,49 +4639,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="X22" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -3667,7 +4697,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3676,53 +4706,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
         <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
@@ -3738,7 +4768,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3747,49 +4777,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J24" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="X24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -3805,7 +4839,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3814,53 +4848,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
         <v>3</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -3876,7 +4910,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3885,53 +4919,53 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s">
         <v>77</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
@@ -3947,7 +4981,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3956,53 +4990,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>167</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
       <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
@@ -4018,7 +5046,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4027,38 +5055,32 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
         <v>5</v>
@@ -4067,13 +5089,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
@@ -4089,7 +5111,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4098,53 +5120,47 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
         <v>3</v>
       </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3</v>
-      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30">
@@ -4160,7 +5176,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4169,37 +5185,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J30" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -4209,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="X30" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Y30" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
@@ -4231,7 +5247,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4240,53 +5256,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="O31" t="s">
-        <v>293</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="X31" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="Y31" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
@@ -4302,7 +5308,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4311,49 +5317,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
         <v>4</v>
       </c>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="X32" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
@@ -4369,7 +5379,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4378,53 +5388,43 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>62</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="Y33" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34">
@@ -4440,7 +5440,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4449,53 +5449,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="X34" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
@@ -4511,7 +5501,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4520,34 +5510,30 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
         <v>3</v>
@@ -4560,13 +5546,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -4582,7 +5568,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4591,47 +5577,53 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
         <v>77</v>
       </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
       <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="X36" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="Y36" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
@@ -4647,7 +5639,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4656,43 +5648,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s">
-        <v>167</v>
-      </c>
-      <c r="P37" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
       <c r="Q37" t="s"/>
-      <c r="R37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="X37" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38">
@@ -4708,7 +5706,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4717,47 +5715,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J38" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="O38" t="s">
-        <v>293</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="X38" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Y38" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39">
@@ -4773,7 +5773,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4782,31 +5782,31 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="O39" t="s">
-        <v>293</v>
+        <v>77</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
         <v>5</v>
       </c>
@@ -4817,10 +5817,14 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>347</v>
+      </c>
+      <c r="X39" t="s">
+        <v>348</v>
+      </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
@@ -4836,7 +5840,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4845,47 +5849,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="J40" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="K40" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="L40" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>362</v>
+        <v>293</v>
       </c>
       <c r="O40" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="X40" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="Y40" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41">
@@ -4901,7 +5907,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4910,47 +5916,53 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O41" t="s">
-        <v>167</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="X41" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="Y41" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42">
@@ -4966,7 +5978,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4975,43 +5987,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="K42" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>77</v>
-      </c>
-      <c r="P42" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
       <c r="Q42" t="s"/>
       <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="X42" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Y42" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -5027,7 +6045,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -5036,43 +6054,53 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="K43" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="L43" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O43" t="s">
-        <v>293</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="X43" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
@@ -5088,7 +6116,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5097,49 +6125,53 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="X44" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Y44" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
@@ -5155,7 +6187,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5164,34 +6196,38 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s">
         <v>77</v>
       </c>
-      <c r="P45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -5200,13 +6236,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46">
@@ -5222,7 +6258,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5231,47 +6267,53 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="O46" t="s">
-        <v>167</v>
-      </c>
-      <c r="P46" t="s"/>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
       <c r="S46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="X46" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="Y46" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47">
@@ -5287,7 +6329,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5296,49 +6338,53 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="L47" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>388</v>
+      </c>
+      <c r="O47" t="s">
+        <v>197</v>
+      </c>
+      <c r="P47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s">
-        <v>424</v>
-      </c>
-      <c r="O47" t="s">
-        <v>167</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="X47" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48">
@@ -5354,7 +6400,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5363,28 +6409,32 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s">
-        <v>77</v>
-      </c>
-      <c r="P48" t="s"/>
-      <c r="Q48" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
       <c r="R48" t="n">
         <v>5</v>
       </c>
@@ -5399,13 +6449,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="X48" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="Y48" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49">
@@ -5421,7 +6471,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5430,43 +6480,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="K49" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" t="s"/>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
       <c r="T49" t="s"/>
-      <c r="U49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="X49" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Y49" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
@@ -5482,7 +6542,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5491,43 +6551,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="J50" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K50" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="L50" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
-      </c>
-      <c r="P50" t="s"/>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
-      <c r="S50" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="X50" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="Y50" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51">
@@ -5543,7 +6613,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5552,31 +6622,37 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="J51" t="s">
+        <v>443</v>
+      </c>
+      <c r="K51" t="s">
+        <v>444</v>
+      </c>
+      <c r="L51" t="s">
         <v>445</v>
       </c>
-      <c r="K51" t="s">
-        <v>454</v>
-      </c>
-      <c r="L51" t="s">
-        <v>455</v>
-      </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5586,13 +6662,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="X51" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Y51" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
@@ -5608,7 +6684,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5617,34 +6693,38 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
-      <c r="S52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
         <v>5</v>
@@ -5653,13 +6733,13 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="X52" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="Y52" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
@@ -5675,7 +6755,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5684,49 +6764,53 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="J53" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K53" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L53" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
-      </c>
-      <c r="P53" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
       <c r="Q53" t="n">
         <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="X53" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
@@ -5742,7 +6826,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5751,32 +6835,38 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="K54" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>475</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
       </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5785,13 +6875,13 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="X54" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y54" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="55">
@@ -5807,7 +6897,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5816,49 +6906,53 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="J55" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="K55" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="L55" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
         <v>77</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="X55" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="Y55" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56">
@@ -5874,7 +6968,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5883,47 +6977,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="L56" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
       <c r="Q56" t="s"/>
-      <c r="R56" t="s"/>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="X56" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="Y56" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57">
@@ -5939,7 +7035,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5948,31 +7044,37 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="J57" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="K57" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="O57" t="s">
-        <v>167</v>
-      </c>
-      <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
-      <c r="R57" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5982,13 +7084,13 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="X57" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="Y57" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="58">
@@ -6004,7 +7106,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -6013,49 +7115,53 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="J58" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="K58" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="L58" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
       <c r="S58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="X58" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="Y58" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59">
@@ -6071,7 +7177,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6080,43 +7186,53 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="J59" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="K59" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="L59" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>517</v>
+        <v>388</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
-      </c>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>518</v>
+        <v>413</v>
       </c>
       <c r="X59" t="s">
-        <v>519</v>
+        <v>414</v>
       </c>
       <c r="Y59" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
@@ -6132,7 +7248,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6141,32 +7257,38 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="J60" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="K60" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="L60" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>526</v>
+        <v>269</v>
       </c>
       <c r="O60" t="s">
-        <v>62</v>
-      </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
       <c r="R60" t="n">
         <v>5</v>
       </c>
-      <c r="S60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
         <v>5</v>
@@ -6175,13 +7297,13 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="X60" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="Y60" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="61">
@@ -6197,7 +7319,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6206,43 +7328,53 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="J61" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="K61" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="L61" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>526</v>
+        <v>269</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
-      </c>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+        <v>107</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="X61" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="Y61" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="62">
@@ -6258,7 +7390,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6267,49 +7399,47 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="J62" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="K62" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="L62" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="O62" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="P62" t="s"/>
-      <c r="Q62" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q62" t="s"/>
       <c r="R62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="X62" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="Y62" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63">
@@ -6325,7 +7455,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -6334,47 +7464,43 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="J63" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="K63" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="L63" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="O63" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="P63" t="s"/>
-      <c r="Q63" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>5</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="X63" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="Y63" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64">
@@ -6390,7 +7516,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6399,49 +7525,43 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="J64" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="K64" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="L64" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>543</v>
+        <v>483</v>
       </c>
       <c r="O64" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>2</v>
-      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="n">
-        <v>5</v>
-      </c>
+      <c r="U64" t="s"/>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="X64" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="Y64" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65">
@@ -6457,7 +7577,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6466,25 +7586,25 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="J65" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="K65" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="L65" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6496,13 +7616,13 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="X65" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="Y65" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66">
@@ -6518,7 +7638,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6527,39 +7647,47 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="J66" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="K66" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="L66" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
-      <c r="N66" t="s"/>
-      <c r="O66" t="s"/>
+      <c r="N66" t="s">
+        <v>553</v>
+      </c>
+      <c r="O66" t="s">
+        <v>157</v>
+      </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
       <c r="R66" t="s"/>
-      <c r="S66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
       <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="X66" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="Y66" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67">
@@ -6575,7 +7703,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6584,33 +7712,33 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="J67" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="K67" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="L67" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="O67" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P67" t="s"/>
-      <c r="Q67" t="n">
-        <v>3</v>
-      </c>
-      <c r="R67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
       <c r="S67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
@@ -6619,14 +7747,10 @@
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>585</v>
-      </c>
-      <c r="X67" t="s">
-        <v>586</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="68">
@@ -6642,7 +7766,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6651,45 +7775,3121 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="J68" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="K68" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="L68" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="M68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="O68" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
-      <c r="R68" t="n">
-        <v>5</v>
-      </c>
+      <c r="R68" t="s"/>
       <c r="S68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>576</v>
+      </c>
+      <c r="X68" t="s">
+        <v>577</v>
+      </c>
       <c r="Y68" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>579</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>580</v>
+      </c>
+      <c r="J69" t="s">
+        <v>581</v>
+      </c>
+      <c r="K69" t="s">
+        <v>582</v>
+      </c>
+      <c r="L69" t="s">
+        <v>583</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>570</v>
+      </c>
+      <c r="O69" t="s">
+        <v>107</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>576</v>
+      </c>
+      <c r="X69" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>585</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>586</v>
+      </c>
+      <c r="J70" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s">
+        <v>589</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>570</v>
+      </c>
+      <c r="O70" t="s">
+        <v>197</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>576</v>
+      </c>
+      <c r="X70" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>591</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>592</v>
+      </c>
+      <c r="J71" t="s">
+        <v>593</v>
+      </c>
+      <c r="K71" t="s">
         <v>594</v>
+      </c>
+      <c r="L71" t="s">
+        <v>595</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>570</v>
+      </c>
+      <c r="O71" t="s">
+        <v>197</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>596</v>
+      </c>
+      <c r="X71" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>599</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>600</v>
+      </c>
+      <c r="J72" t="s">
+        <v>601</v>
+      </c>
+      <c r="K72" t="s">
+        <v>602</v>
+      </c>
+      <c r="L72" t="s">
+        <v>603</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>570</v>
+      </c>
+      <c r="O72" t="s">
+        <v>107</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>596</v>
+      </c>
+      <c r="X72" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>605</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>606</v>
+      </c>
+      <c r="J73" t="s">
+        <v>607</v>
+      </c>
+      <c r="K73" t="s">
+        <v>608</v>
+      </c>
+      <c r="L73" t="s">
+        <v>609</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>570</v>
+      </c>
+      <c r="O73" t="s">
+        <v>157</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>610</v>
+      </c>
+      <c r="X73" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>613</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>614</v>
+      </c>
+      <c r="J74" t="s">
+        <v>615</v>
+      </c>
+      <c r="K74" t="s">
+        <v>616</v>
+      </c>
+      <c r="L74" t="s">
+        <v>617</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>618</v>
+      </c>
+      <c r="O74" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>619</v>
+      </c>
+      <c r="X74" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>622</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>623</v>
+      </c>
+      <c r="J75" t="s">
+        <v>624</v>
+      </c>
+      <c r="K75" t="s">
+        <v>625</v>
+      </c>
+      <c r="L75" t="s">
+        <v>626</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>627</v>
+      </c>
+      <c r="O75" t="s">
+        <v>107</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>628</v>
+      </c>
+      <c r="X75" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>631</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>632</v>
+      </c>
+      <c r="J76" t="s">
+        <v>633</v>
+      </c>
+      <c r="K76" t="s">
+        <v>634</v>
+      </c>
+      <c r="L76" t="s">
+        <v>635</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>636</v>
+      </c>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>637</v>
+      </c>
+      <c r="X76" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>640</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>641</v>
+      </c>
+      <c r="J77" t="s">
+        <v>642</v>
+      </c>
+      <c r="K77" t="s">
+        <v>643</v>
+      </c>
+      <c r="L77" t="s">
+        <v>644</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>645</v>
+      </c>
+      <c r="O77" t="s">
+        <v>107</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>646</v>
+      </c>
+      <c r="X77" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>649</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>650</v>
+      </c>
+      <c r="J78" t="s">
+        <v>651</v>
+      </c>
+      <c r="K78" t="s">
+        <v>652</v>
+      </c>
+      <c r="L78" t="s">
+        <v>653</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>645</v>
+      </c>
+      <c r="O78" t="s">
+        <v>197</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>654</v>
+      </c>
+      <c r="X78" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>657</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>658</v>
+      </c>
+      <c r="J79" t="s">
+        <v>659</v>
+      </c>
+      <c r="K79" t="s">
+        <v>660</v>
+      </c>
+      <c r="L79" t="s">
+        <v>661</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>645</v>
+      </c>
+      <c r="O79" t="s">
+        <v>77</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>654</v>
+      </c>
+      <c r="X79" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>663</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>664</v>
+      </c>
+      <c r="J80" t="s">
+        <v>665</v>
+      </c>
+      <c r="K80" t="s">
+        <v>666</v>
+      </c>
+      <c r="L80" t="s">
+        <v>667</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>645</v>
+      </c>
+      <c r="O80" t="s">
+        <v>197</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>646</v>
+      </c>
+      <c r="X80" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>669</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>670</v>
+      </c>
+      <c r="J81" t="s">
+        <v>671</v>
+      </c>
+      <c r="K81" t="s">
+        <v>672</v>
+      </c>
+      <c r="L81" t="s">
+        <v>673</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>618</v>
+      </c>
+      <c r="O81" t="s">
+        <v>197</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>674</v>
+      </c>
+      <c r="X81" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>677</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>678</v>
+      </c>
+      <c r="J82" t="s">
+        <v>679</v>
+      </c>
+      <c r="K82" t="s">
+        <v>680</v>
+      </c>
+      <c r="L82" t="s">
+        <v>681</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>627</v>
+      </c>
+      <c r="O82" t="s">
+        <v>107</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>682</v>
+      </c>
+      <c r="X82" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>685</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>686</v>
+      </c>
+      <c r="J83" t="s">
+        <v>687</v>
+      </c>
+      <c r="K83" t="s">
+        <v>688</v>
+      </c>
+      <c r="L83" t="s">
+        <v>689</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>627</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>682</v>
+      </c>
+      <c r="X83" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>691</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>692</v>
+      </c>
+      <c r="J84" t="s">
+        <v>693</v>
+      </c>
+      <c r="K84" t="s">
+        <v>694</v>
+      </c>
+      <c r="L84" t="s">
+        <v>695</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>618</v>
+      </c>
+      <c r="O84" t="s">
+        <v>197</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>696</v>
+      </c>
+      <c r="X84" t="s">
+        <v>697</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>699</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>700</v>
+      </c>
+      <c r="J85" t="s">
+        <v>701</v>
+      </c>
+      <c r="K85" t="s">
+        <v>702</v>
+      </c>
+      <c r="L85" t="s">
+        <v>703</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>704</v>
+      </c>
+      <c r="O85" t="s">
+        <v>157</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>705</v>
+      </c>
+      <c r="X85" t="s">
+        <v>706</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>708</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>709</v>
+      </c>
+      <c r="J86" t="s">
+        <v>710</v>
+      </c>
+      <c r="K86" t="s">
+        <v>711</v>
+      </c>
+      <c r="L86" t="s">
+        <v>712</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>704</v>
+      </c>
+      <c r="O86" t="s">
+        <v>77</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>713</v>
+      </c>
+      <c r="X86" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>716</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>717</v>
+      </c>
+      <c r="J87" t="s">
+        <v>710</v>
+      </c>
+      <c r="K87" t="s">
+        <v>718</v>
+      </c>
+      <c r="L87" t="s">
+        <v>719</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>704</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>713</v>
+      </c>
+      <c r="X87" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>721</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>722</v>
+      </c>
+      <c r="J88" t="s">
+        <v>710</v>
+      </c>
+      <c r="K88" t="s">
+        <v>723</v>
+      </c>
+      <c r="L88" t="s">
+        <v>724</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>704</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>713</v>
+      </c>
+      <c r="X88" t="s">
+        <v>714</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>726</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>727</v>
+      </c>
+      <c r="J89" t="s">
+        <v>728</v>
+      </c>
+      <c r="K89" t="s">
+        <v>729</v>
+      </c>
+      <c r="L89" t="s">
+        <v>730</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>704</v>
+      </c>
+      <c r="O89" t="s">
+        <v>197</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>731</v>
+      </c>
+      <c r="X89" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>734</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>735</v>
+      </c>
+      <c r="J90" t="s">
+        <v>736</v>
+      </c>
+      <c r="K90" t="s">
+        <v>737</v>
+      </c>
+      <c r="L90" t="s">
+        <v>738</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>739</v>
+      </c>
+      <c r="O90" t="s">
+        <v>197</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>740</v>
+      </c>
+      <c r="X90" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>743</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>744</v>
+      </c>
+      <c r="J91" t="s">
+        <v>736</v>
+      </c>
+      <c r="K91" t="s">
+        <v>745</v>
+      </c>
+      <c r="L91" t="s">
+        <v>746</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>704</v>
+      </c>
+      <c r="O91" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>740</v>
+      </c>
+      <c r="X91" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>748</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>749</v>
+      </c>
+      <c r="J92" t="s">
+        <v>750</v>
+      </c>
+      <c r="K92" t="s">
+        <v>751</v>
+      </c>
+      <c r="L92" t="s">
+        <v>752</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>739</v>
+      </c>
+      <c r="O92" t="s">
+        <v>197</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>753</v>
+      </c>
+      <c r="X92" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>756</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>757</v>
+      </c>
+      <c r="J93" t="s">
+        <v>758</v>
+      </c>
+      <c r="K93" t="s">
+        <v>759</v>
+      </c>
+      <c r="L93" t="s">
+        <v>760</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>761</v>
+      </c>
+      <c r="O93" t="s">
+        <v>107</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>762</v>
+      </c>
+      <c r="X93" t="s">
+        <v>763</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>765</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>766</v>
+      </c>
+      <c r="J94" t="s">
+        <v>767</v>
+      </c>
+      <c r="K94" t="s">
+        <v>768</v>
+      </c>
+      <c r="L94" t="s">
+        <v>769</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>739</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>770</v>
+      </c>
+      <c r="X94" t="s">
+        <v>771</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>773</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>774</v>
+      </c>
+      <c r="J95" t="s">
+        <v>775</v>
+      </c>
+      <c r="K95" t="s">
+        <v>776</v>
+      </c>
+      <c r="L95" t="s">
+        <v>777</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>739</v>
+      </c>
+      <c r="O95" t="s">
+        <v>107</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>778</v>
+      </c>
+      <c r="X95" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>781</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>782</v>
+      </c>
+      <c r="J96" t="s">
+        <v>783</v>
+      </c>
+      <c r="K96" t="s">
+        <v>784</v>
+      </c>
+      <c r="L96" t="s">
+        <v>785</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>761</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>786</v>
+      </c>
+      <c r="X96" t="s">
+        <v>787</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>789</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>790</v>
+      </c>
+      <c r="J97" t="s">
+        <v>791</v>
+      </c>
+      <c r="K97" t="s">
+        <v>792</v>
+      </c>
+      <c r="L97" t="s">
+        <v>793</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>761</v>
+      </c>
+      <c r="O97" t="s">
+        <v>197</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>794</v>
+      </c>
+      <c r="X97" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>797</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>798</v>
+      </c>
+      <c r="J98" t="s">
+        <v>799</v>
+      </c>
+      <c r="K98" t="s">
+        <v>800</v>
+      </c>
+      <c r="L98" t="s">
+        <v>801</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>761</v>
+      </c>
+      <c r="O98" t="s">
+        <v>107</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>802</v>
+      </c>
+      <c r="X98" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>805</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>806</v>
+      </c>
+      <c r="J99" t="s">
+        <v>807</v>
+      </c>
+      <c r="K99" t="s">
+        <v>808</v>
+      </c>
+      <c r="L99" t="s">
+        <v>809</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>810</v>
+      </c>
+      <c r="O99" t="s">
+        <v>107</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>811</v>
+      </c>
+      <c r="X99" t="s">
+        <v>812</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>814</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>815</v>
+      </c>
+      <c r="J100" t="s">
+        <v>816</v>
+      </c>
+      <c r="K100" t="s">
+        <v>817</v>
+      </c>
+      <c r="L100" t="s">
+        <v>818</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>810</v>
+      </c>
+      <c r="O100" t="s">
+        <v>107</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>819</v>
+      </c>
+      <c r="X100" t="s">
+        <v>820</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>822</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>823</v>
+      </c>
+      <c r="J101" t="s">
+        <v>824</v>
+      </c>
+      <c r="K101" t="s">
+        <v>825</v>
+      </c>
+      <c r="L101" t="s">
+        <v>826</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>827</v>
+      </c>
+      <c r="O101" t="s">
+        <v>77</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>828</v>
+      </c>
+      <c r="X101" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>831</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>832</v>
+      </c>
+      <c r="J102" t="s">
+        <v>833</v>
+      </c>
+      <c r="K102" t="s">
+        <v>834</v>
+      </c>
+      <c r="L102" t="s">
+        <v>835</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>836</v>
+      </c>
+      <c r="O102" t="s">
+        <v>77</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>837</v>
+      </c>
+      <c r="X102" t="s">
+        <v>838</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>840</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>841</v>
+      </c>
+      <c r="J103" t="s">
+        <v>842</v>
+      </c>
+      <c r="K103" t="s">
+        <v>843</v>
+      </c>
+      <c r="L103" t="s">
+        <v>844</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>836</v>
+      </c>
+      <c r="O103" t="s">
+        <v>77</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="s"/>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>845</v>
+      </c>
+      <c r="X103" t="s">
+        <v>846</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>848</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>849</v>
+      </c>
+      <c r="J104" t="s">
+        <v>850</v>
+      </c>
+      <c r="K104" t="s">
+        <v>851</v>
+      </c>
+      <c r="L104" t="s">
+        <v>852</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>853</v>
+      </c>
+      <c r="O104" t="s">
+        <v>77</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>854</v>
+      </c>
+      <c r="X104" t="s">
+        <v>855</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>857</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>858</v>
+      </c>
+      <c r="J105" t="s">
+        <v>859</v>
+      </c>
+      <c r="K105" t="s">
+        <v>860</v>
+      </c>
+      <c r="L105" t="s">
+        <v>861</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>836</v>
+      </c>
+      <c r="O105" t="s">
+        <v>197</v>
+      </c>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>862</v>
+      </c>
+      <c r="X105" t="s">
+        <v>863</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>865</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>866</v>
+      </c>
+      <c r="J106" t="s">
+        <v>867</v>
+      </c>
+      <c r="K106" t="s">
+        <v>868</v>
+      </c>
+      <c r="L106" t="s">
+        <v>869</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>853</v>
+      </c>
+      <c r="O106" t="s">
+        <v>77</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>870</v>
+      </c>
+      <c r="X106" t="s">
+        <v>871</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>873</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>874</v>
+      </c>
+      <c r="J107" t="s">
+        <v>875</v>
+      </c>
+      <c r="K107" t="s">
+        <v>876</v>
+      </c>
+      <c r="L107" t="s">
+        <v>877</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>853</v>
+      </c>
+      <c r="O107" t="s">
+        <v>107</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>878</v>
+      </c>
+      <c r="X107" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>881</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>882</v>
+      </c>
+      <c r="J108" t="s">
+        <v>883</v>
+      </c>
+      <c r="K108" t="s">
+        <v>884</v>
+      </c>
+      <c r="L108" t="s">
+        <v>885</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>853</v>
+      </c>
+      <c r="O108" t="s">
+        <v>107</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>886</v>
+      </c>
+      <c r="X108" t="s">
+        <v>887</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>889</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>890</v>
+      </c>
+      <c r="J109" t="s">
+        <v>891</v>
+      </c>
+      <c r="K109" t="s">
+        <v>892</v>
+      </c>
+      <c r="L109" t="s">
+        <v>893</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>853</v>
+      </c>
+      <c r="O109" t="s">
+        <v>157</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>894</v>
+      </c>
+      <c r="X109" t="s">
+        <v>895</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>897</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>898</v>
+      </c>
+      <c r="J110" t="s">
+        <v>899</v>
+      </c>
+      <c r="K110" t="s">
+        <v>900</v>
+      </c>
+      <c r="L110" t="s">
+        <v>901</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>894</v>
+      </c>
+      <c r="X110" t="s">
+        <v>895</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>903</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>904</v>
+      </c>
+      <c r="J111" t="s">
+        <v>905</v>
+      </c>
+      <c r="K111" t="s">
+        <v>906</v>
+      </c>
+      <c r="L111" t="s">
+        <v>907</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>853</v>
+      </c>
+      <c r="O111" t="s">
+        <v>77</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>908</v>
+      </c>
+      <c r="X111" t="s">
+        <v>909</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>911</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>912</v>
+      </c>
+      <c r="J112" t="s">
+        <v>913</v>
+      </c>
+      <c r="K112" t="s">
+        <v>914</v>
+      </c>
+      <c r="L112" t="s">
+        <v>915</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>916</v>
+      </c>
+      <c r="X112" t="s">
+        <v>917</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>919</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>920</v>
+      </c>
+      <c r="J113" t="s">
+        <v>921</v>
+      </c>
+      <c r="K113" t="s">
+        <v>922</v>
+      </c>
+      <c r="L113" t="s">
+        <v>923</v>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="s">
+        <v>924</v>
+      </c>
+      <c r="O113" t="s">
+        <v>197</v>
+      </c>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="s"/>
+      <c r="S113" t="n">
+        <v>4</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>925</v>
+      </c>
+      <c r="X113" t="s">
+        <v>926</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>928</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>929</v>
+      </c>
+      <c r="J114" t="s">
+        <v>930</v>
+      </c>
+      <c r="K114" t="s">
+        <v>931</v>
+      </c>
+      <c r="L114" t="s">
+        <v>932</v>
+      </c>
+      <c r="M114" t="n">
+        <v>5</v>
+      </c>
+      <c r="N114" t="s">
+        <v>933</v>
+      </c>
+      <c r="O114" t="s">
+        <v>77</v>
+      </c>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="n">
+        <v>5</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>934</v>
+      </c>
+      <c r="X114" t="s">
+        <v>935</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>937</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>938</v>
+      </c>
+      <c r="J115" t="s">
+        <v>939</v>
+      </c>
+      <c r="K115" t="s">
+        <v>940</v>
+      </c>
+      <c r="L115" t="s">
+        <v>941</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>942</v>
+      </c>
+      <c r="O115" t="s">
+        <v>52</v>
+      </c>
+      <c r="P115" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="s"/>
+      <c r="S115" t="s"/>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>5</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>943</v>
+      </c>
+      <c r="X115" t="s">
+        <v>944</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>35312</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>946</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>947</v>
+      </c>
+      <c r="J116" t="s">
+        <v>948</v>
+      </c>
+      <c r="K116" t="s">
+        <v>949</v>
+      </c>
+      <c r="L116" t="s">
+        <v>950</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>951</v>
+      </c>
+      <c r="O116" t="s">
+        <v>107</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="s"/>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
